--- a/Signal & Hobbs/32519/Conqa project breakdown Vince WIP.xlsx
+++ b/Signal & Hobbs/32519/Conqa project breakdown Vince WIP.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\1. Active Projects\ADCO\E22049 Hawthorn Football Club\4.COMPLETION\2. Quality Assurance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Signal &amp; Hobbs\32519\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7764881-F08F-40D0-84F2-77F69F8C0FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B43BDCF-7B91-432D-8398-FF168A9B5349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" tabRatio="948" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3030" yWindow="315" windowWidth="28890" windowHeight="19710" tabRatio="948" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Breakdown" sheetId="1" r:id="rId1"/>
-    <sheet name="01. Zone A Roof" sheetId="8" r:id="rId2"/>
-    <sheet name="02. Zone B Roof" sheetId="9" r:id="rId3"/>
-    <sheet name="02. Zone B Roof Parapet" sheetId="11" r:id="rId4"/>
-    <sheet name="03. Zone C Lift Roof" sheetId="10" r:id="rId5"/>
-    <sheet name="03. Zone C Roof Insulated Panel" sheetId="12" r:id="rId6"/>
-    <sheet name="03. Zone C Roof Parapet" sheetId="13" r:id="rId7"/>
-    <sheet name="04. Zone D Roof - ITF" sheetId="14" r:id="rId8"/>
-    <sheet name="05. Zone E Roof - Airlock 2" sheetId="15" r:id="rId9"/>
-    <sheet name="05. Zone E Roof - Main SB" sheetId="16" r:id="rId10"/>
-    <sheet name="05. Zone E Roof - Theatre" sheetId="17" r:id="rId11"/>
+    <sheet name="01. Zone A Roof" sheetId="8" state="hidden" r:id="rId2"/>
+    <sheet name="02. Zone B Roof" sheetId="9" state="hidden" r:id="rId3"/>
+    <sheet name="02. Zone B Roof Parapet" sheetId="11" state="hidden" r:id="rId4"/>
+    <sheet name="03. Zone C Lift Roof" sheetId="10" state="hidden" r:id="rId5"/>
+    <sheet name="03. Zone C Roof Insulated Panel" sheetId="12" state="hidden" r:id="rId6"/>
+    <sheet name="03. Zone C Roof Parapet" sheetId="13" state="hidden" r:id="rId7"/>
+    <sheet name="04. Zone D Roof - ITF" sheetId="14" state="hidden" r:id="rId8"/>
+    <sheet name="05. Zone E Roof - Airlock 2" sheetId="15" state="hidden" r:id="rId9"/>
+    <sheet name="05. Zone E Roof - Main SB" sheetId="16" state="hidden" r:id="rId10"/>
+    <sheet name="05. Zone E Roof - Theatre" sheetId="17" state="hidden" r:id="rId11"/>
     <sheet name="05. Zone E Roof Parapet" sheetId="18" r:id="rId12"/>
     <sheet name="07. Zone F Roof" sheetId="19" r:id="rId13"/>
     <sheet name="07. Zone F Curved Soffit" sheetId="20" r:id="rId14"/>
@@ -1498,22 +1498,22 @@
   </sheetPr>
   <dimension ref="A1:G1079"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G5" sqref="G5"/>
       <selection pane="bottomLeft" activeCell="B185" sqref="B185"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" customWidth="1"/>
-    <col min="2" max="2" width="49.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.44140625" customWidth="1"/>
-    <col min="6" max="6" width="50.109375" customWidth="1"/>
-    <col min="7" max="7" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" customWidth="1"/>
+    <col min="6" max="6" width="50.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6">
+    <row r="1" spans="1:6">
       <c r="A1" s="8" t="s">
         <v>214</v>
       </c>
@@ -2254,17 +2254,17 @@
       <c r="A95" s="3"/>
       <c r="G95" s="30"/>
     </row>
-    <row r="96" spans="1:7" ht="13.2">
+    <row r="96" spans="1:7" ht="12.75">
       <c r="G96" s="3"/>
     </row>
-    <row r="97" spans="1:7" ht="14.4">
+    <row r="97" spans="1:7" ht="15">
       <c r="C97" s="4"/>
       <c r="D97" s="5"/>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
       <c r="G97" s="3"/>
     </row>
-    <row r="98" spans="1:7" ht="14.4">
+    <row r="98" spans="1:7" ht="15">
       <c r="A98" s="36" t="s">
         <v>32</v>
       </c>
@@ -2275,7 +2275,7 @@
       <c r="F98" s="6"/>
       <c r="G98" s="3"/>
     </row>
-    <row r="99" spans="1:7" ht="14.4">
+    <row r="99" spans="1:7" ht="15">
       <c r="B99" s="39"/>
       <c r="C99" s="4" t="s">
         <v>85</v>
@@ -2285,7 +2285,7 @@
       <c r="F99" s="6"/>
       <c r="G99" s="3"/>
     </row>
-    <row r="100" spans="1:7" ht="14.4">
+    <row r="100" spans="1:7" ht="15">
       <c r="B100" s="39"/>
       <c r="C100" s="4" t="s">
         <v>86</v>
@@ -2295,7 +2295,7 @@
       <c r="F100" s="6"/>
       <c r="G100" s="3"/>
     </row>
-    <row r="101" spans="1:7" ht="14.4">
+    <row r="101" spans="1:7" ht="15">
       <c r="B101" s="39"/>
       <c r="C101" s="4" t="s">
         <v>87</v>
@@ -2305,7 +2305,7 @@
       <c r="F101" s="6"/>
       <c r="G101" s="3"/>
     </row>
-    <row r="102" spans="1:7" ht="14.4">
+    <row r="102" spans="1:7" ht="15">
       <c r="B102" s="39"/>
       <c r="C102" s="4" t="s">
         <v>88</v>
@@ -2315,7 +2315,7 @@
       <c r="F102" s="6"/>
       <c r="G102" s="3"/>
     </row>
-    <row r="103" spans="1:7" ht="14.4">
+    <row r="103" spans="1:7" ht="15">
       <c r="B103" s="39"/>
       <c r="C103" s="4" t="s">
         <v>89</v>
@@ -2325,7 +2325,7 @@
       <c r="F103" s="6"/>
       <c r="G103" s="3"/>
     </row>
-    <row r="104" spans="1:7" ht="14.4">
+    <row r="104" spans="1:7" ht="15">
       <c r="B104" s="39"/>
       <c r="C104" s="4" t="s">
         <v>90</v>
@@ -2335,7 +2335,7 @@
       <c r="F104" s="6"/>
       <c r="G104" s="3"/>
     </row>
-    <row r="105" spans="1:7" ht="14.4">
+    <row r="105" spans="1:7" ht="15">
       <c r="B105" s="39"/>
       <c r="C105" s="4" t="s">
         <v>91</v>
@@ -2345,7 +2345,7 @@
       <c r="F105" s="6"/>
       <c r="G105" s="3"/>
     </row>
-    <row r="106" spans="1:7" ht="14.4">
+    <row r="106" spans="1:7" ht="15">
       <c r="B106" s="39"/>
       <c r="C106" s="4" t="s">
         <v>92</v>
@@ -2355,7 +2355,7 @@
       <c r="F106" s="6"/>
       <c r="G106" s="3"/>
     </row>
-    <row r="107" spans="1:7" ht="14.4">
+    <row r="107" spans="1:7" ht="15">
       <c r="B107" s="39"/>
       <c r="C107" s="4" t="s">
         <v>93</v>
@@ -2365,7 +2365,7 @@
       <c r="F107" s="6"/>
       <c r="G107" s="3"/>
     </row>
-    <row r="108" spans="1:7" ht="14.4">
+    <row r="108" spans="1:7" ht="15">
       <c r="B108" s="39"/>
       <c r="C108" s="4" t="s">
         <v>94</v>
@@ -2375,7 +2375,7 @@
       <c r="F108" s="6"/>
       <c r="G108" s="3"/>
     </row>
-    <row r="109" spans="1:7" ht="14.4">
+    <row r="109" spans="1:7" ht="15">
       <c r="B109" s="39"/>
       <c r="C109" s="4" t="s">
         <v>95</v>
@@ -2385,7 +2385,7 @@
       <c r="F109" s="6"/>
       <c r="G109" s="3"/>
     </row>
-    <row r="110" spans="1:7" ht="14.4">
+    <row r="110" spans="1:7" ht="15">
       <c r="B110" s="39"/>
       <c r="C110" s="4" t="s">
         <v>96</v>
@@ -2395,7 +2395,7 @@
       <c r="F110" s="6"/>
       <c r="G110" s="3"/>
     </row>
-    <row r="111" spans="1:7" ht="14.4">
+    <row r="111" spans="1:7" ht="15">
       <c r="A111" s="38" t="s">
         <v>33</v>
       </c>
@@ -2406,7 +2406,7 @@
       <c r="F111" s="6"/>
       <c r="G111" s="3"/>
     </row>
-    <row r="112" spans="1:7" ht="14.4">
+    <row r="112" spans="1:7" ht="15">
       <c r="B112" s="39" t="s">
         <v>77</v>
       </c>
@@ -2416,7 +2416,7 @@
       <c r="F112" s="6"/>
       <c r="G112" s="3"/>
     </row>
-    <row r="113" spans="2:7" ht="14.4">
+    <row r="113" spans="2:7" ht="15">
       <c r="B113" s="39"/>
       <c r="C113" s="4" t="s">
         <v>85</v>
@@ -2426,7 +2426,7 @@
       <c r="F113" s="6"/>
       <c r="G113" s="3"/>
     </row>
-    <row r="114" spans="2:7" ht="14.4">
+    <row r="114" spans="2:7" ht="15">
       <c r="B114" s="39"/>
       <c r="C114" s="4" t="s">
         <v>86</v>
@@ -2436,7 +2436,7 @@
       <c r="F114" s="6"/>
       <c r="G114" s="3"/>
     </row>
-    <row r="115" spans="2:7" ht="14.4">
+    <row r="115" spans="2:7" ht="15">
       <c r="B115" s="39"/>
       <c r="C115" s="4" t="s">
         <v>87</v>
@@ -2446,7 +2446,7 @@
       <c r="F115" s="6"/>
       <c r="G115" s="3"/>
     </row>
-    <row r="116" spans="2:7" ht="14.4">
+    <row r="116" spans="2:7" ht="15">
       <c r="B116" s="39"/>
       <c r="C116" s="4" t="s">
         <v>88</v>
@@ -2456,7 +2456,7 @@
       <c r="F116" s="6"/>
       <c r="G116" s="3"/>
     </row>
-    <row r="117" spans="2:7" ht="14.4">
+    <row r="117" spans="2:7" ht="15">
       <c r="B117" s="39"/>
       <c r="C117" s="4" t="s">
         <v>89</v>
@@ -2466,7 +2466,7 @@
       <c r="F117" s="6"/>
       <c r="G117" s="3"/>
     </row>
-    <row r="118" spans="2:7" ht="14.4">
+    <row r="118" spans="2:7" ht="15">
       <c r="B118" s="39"/>
       <c r="C118" s="4" t="s">
         <v>90</v>
@@ -2476,7 +2476,7 @@
       <c r="F118" s="6"/>
       <c r="G118" s="3"/>
     </row>
-    <row r="119" spans="2:7" ht="14.4">
+    <row r="119" spans="2:7" ht="15">
       <c r="B119" s="39"/>
       <c r="C119" s="4" t="s">
         <v>91</v>
@@ -2486,7 +2486,7 @@
       <c r="F119" s="6"/>
       <c r="G119" s="3"/>
     </row>
-    <row r="120" spans="2:7" ht="14.4">
+    <row r="120" spans="2:7" ht="15">
       <c r="B120" s="39"/>
       <c r="C120" s="4" t="s">
         <v>92</v>
@@ -2496,7 +2496,7 @@
       <c r="F120" s="6"/>
       <c r="G120" s="3"/>
     </row>
-    <row r="121" spans="2:7" ht="14.4">
+    <row r="121" spans="2:7" ht="15">
       <c r="B121" s="39"/>
       <c r="C121" s="4" t="s">
         <v>93</v>
@@ -2506,7 +2506,7 @@
       <c r="F121" s="6"/>
       <c r="G121" s="3"/>
     </row>
-    <row r="122" spans="2:7" ht="14.4">
+    <row r="122" spans="2:7" ht="15">
       <c r="B122" s="39"/>
       <c r="C122" s="4" t="s">
         <v>94</v>
@@ -2516,7 +2516,7 @@
       <c r="F122" s="6"/>
       <c r="G122" s="3"/>
     </row>
-    <row r="123" spans="2:7" ht="14.4">
+    <row r="123" spans="2:7" ht="15">
       <c r="B123" s="39"/>
       <c r="C123" s="4" t="s">
         <v>95</v>
@@ -2526,7 +2526,7 @@
       <c r="F123" s="6"/>
       <c r="G123" s="3"/>
     </row>
-    <row r="124" spans="2:7" ht="14.4">
+    <row r="124" spans="2:7" ht="15">
       <c r="B124" s="39"/>
       <c r="C124" s="4" t="s">
         <v>96</v>
@@ -2536,7 +2536,7 @@
       <c r="F124" s="6"/>
       <c r="G124" s="3"/>
     </row>
-    <row r="125" spans="2:7" ht="14.4">
+    <row r="125" spans="2:7" ht="15">
       <c r="B125" s="39" t="s">
         <v>78</v>
       </c>
@@ -2546,7 +2546,7 @@
       <c r="F125" s="6"/>
       <c r="G125" s="3"/>
     </row>
-    <row r="126" spans="2:7" ht="14.4">
+    <row r="126" spans="2:7" ht="15">
       <c r="B126" s="39"/>
       <c r="C126" s="4" t="s">
         <v>85</v>
@@ -2556,7 +2556,7 @@
       <c r="F126" s="6"/>
       <c r="G126" s="3"/>
     </row>
-    <row r="127" spans="2:7" ht="14.4">
+    <row r="127" spans="2:7" ht="15">
       <c r="B127" s="39"/>
       <c r="C127" s="4" t="s">
         <v>86</v>
@@ -2566,7 +2566,7 @@
       <c r="F127" s="6"/>
       <c r="G127" s="3"/>
     </row>
-    <row r="128" spans="2:7" ht="14.4">
+    <row r="128" spans="2:7" ht="15">
       <c r="B128" s="39"/>
       <c r="C128" s="4" t="s">
         <v>87</v>
@@ -2576,7 +2576,7 @@
       <c r="F128" s="6"/>
       <c r="G128" s="3"/>
     </row>
-    <row r="129" spans="1:7" ht="14.4">
+    <row r="129" spans="1:7" ht="15">
       <c r="B129" s="39"/>
       <c r="C129" s="4" t="s">
         <v>88</v>
@@ -2586,7 +2586,7 @@
       <c r="F129" s="6"/>
       <c r="G129" s="3"/>
     </row>
-    <row r="130" spans="1:7" ht="14.4">
+    <row r="130" spans="1:7" ht="15">
       <c r="B130" s="39"/>
       <c r="C130" s="4" t="s">
         <v>89</v>
@@ -2596,7 +2596,7 @@
       <c r="F130" s="6"/>
       <c r="G130" s="3"/>
     </row>
-    <row r="131" spans="1:7" ht="14.4">
+    <row r="131" spans="1:7" ht="15">
       <c r="B131" s="39"/>
       <c r="C131" s="4" t="s">
         <v>90</v>
@@ -2606,7 +2606,7 @@
       <c r="F131" s="6"/>
       <c r="G131" s="3"/>
     </row>
-    <row r="132" spans="1:7" ht="14.4">
+    <row r="132" spans="1:7" ht="15">
       <c r="B132" s="39"/>
       <c r="C132" s="4" t="s">
         <v>91</v>
@@ -2616,7 +2616,7 @@
       <c r="F132" s="6"/>
       <c r="G132" s="3"/>
     </row>
-    <row r="133" spans="1:7" ht="14.4">
+    <row r="133" spans="1:7" ht="15">
       <c r="B133" s="39"/>
       <c r="C133" s="4" t="s">
         <v>92</v>
@@ -2626,7 +2626,7 @@
       <c r="F133" s="6"/>
       <c r="G133" s="3"/>
     </row>
-    <row r="134" spans="1:7" ht="14.4">
+    <row r="134" spans="1:7" ht="15">
       <c r="B134" s="39"/>
       <c r="C134" s="4" t="s">
         <v>93</v>
@@ -2636,7 +2636,7 @@
       <c r="F134" s="6"/>
       <c r="G134" s="3"/>
     </row>
-    <row r="135" spans="1:7" ht="14.4">
+    <row r="135" spans="1:7" ht="15">
       <c r="B135" s="39"/>
       <c r="C135" s="4" t="s">
         <v>94</v>
@@ -2646,7 +2646,7 @@
       <c r="F135" s="6"/>
       <c r="G135" s="3"/>
     </row>
-    <row r="136" spans="1:7" ht="14.4">
+    <row r="136" spans="1:7" ht="15">
       <c r="B136" s="39"/>
       <c r="C136" s="4" t="s">
         <v>95</v>
@@ -2656,7 +2656,7 @@
       <c r="F136" s="6"/>
       <c r="G136" s="3"/>
     </row>
-    <row r="137" spans="1:7" ht="14.4">
+    <row r="137" spans="1:7" ht="15">
       <c r="B137" s="39"/>
       <c r="C137" s="4" t="s">
         <v>96</v>
@@ -2666,7 +2666,7 @@
       <c r="F137" s="6"/>
       <c r="G137" s="3"/>
     </row>
-    <row r="138" spans="1:7" ht="13.2">
+    <row r="138" spans="1:7" ht="12.75">
       <c r="B138" s="39" t="s">
         <v>79</v>
       </c>
@@ -2676,7 +2676,7 @@
       <c r="F138" s="6"/>
       <c r="G138" s="3"/>
     </row>
-    <row r="139" spans="1:7" ht="14.4">
+    <row r="139" spans="1:7" ht="15">
       <c r="B139" t="s">
         <v>82</v>
       </c>
@@ -2686,7 +2686,7 @@
       <c r="F139" s="6"/>
       <c r="G139" s="3"/>
     </row>
-    <row r="140" spans="1:7" ht="14.4">
+    <row r="140" spans="1:7" ht="15">
       <c r="A140" s="41" t="s">
         <v>83</v>
       </c>
@@ -2697,7 +2697,7 @@
       <c r="F140" s="6"/>
       <c r="G140" s="3"/>
     </row>
-    <row r="141" spans="1:7" ht="14.4">
+    <row r="141" spans="1:7" ht="15">
       <c r="A141" s="42" t="s">
         <v>84</v>
       </c>
@@ -2708,7 +2708,7 @@
       <c r="F141" s="6"/>
       <c r="G141" s="3"/>
     </row>
-    <row r="142" spans="1:7" ht="14.4">
+    <row r="142" spans="1:7" ht="15">
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
       <c r="D142" s="5"/>
@@ -2716,7 +2716,7 @@
       <c r="F142" s="6"/>
       <c r="G142" s="3"/>
     </row>
-    <row r="143" spans="1:7" ht="14.4">
+    <row r="143" spans="1:7" ht="15">
       <c r="A143" s="47" t="s">
         <v>101</v>
       </c>
@@ -2729,7 +2729,7 @@
       <c r="F143" s="6"/>
       <c r="G143" s="3"/>
     </row>
-    <row r="144" spans="1:7" ht="14.4">
+    <row r="144" spans="1:7" ht="15">
       <c r="B144" s="4" t="s">
         <v>86</v>
       </c>
@@ -2739,7 +2739,7 @@
       <c r="F144" s="6"/>
       <c r="G144" s="3"/>
     </row>
-    <row r="145" spans="1:7" ht="14.4">
+    <row r="145" spans="1:7" ht="15">
       <c r="B145" s="4" t="s">
         <v>87</v>
       </c>
@@ -2749,7 +2749,7 @@
       <c r="F145" s="6"/>
       <c r="G145" s="3"/>
     </row>
-    <row r="146" spans="1:7" ht="14.4">
+    <row r="146" spans="1:7" ht="15">
       <c r="B146" s="4" t="s">
         <v>88</v>
       </c>
@@ -2759,7 +2759,7 @@
       <c r="F146" s="6"/>
       <c r="G146" s="3"/>
     </row>
-    <row r="147" spans="1:7" ht="14.4">
+    <row r="147" spans="1:7" ht="15">
       <c r="B147" s="4" t="s">
         <v>89</v>
       </c>
@@ -2769,7 +2769,7 @@
       <c r="F147" s="6"/>
       <c r="G147" s="3"/>
     </row>
-    <row r="148" spans="1:7" ht="14.4">
+    <row r="148" spans="1:7" ht="15">
       <c r="B148" s="4" t="s">
         <v>90</v>
       </c>
@@ -2779,7 +2779,7 @@
       <c r="F148" s="6"/>
       <c r="G148" s="3"/>
     </row>
-    <row r="149" spans="1:7" ht="14.4">
+    <row r="149" spans="1:7" ht="15">
       <c r="B149" s="4" t="s">
         <v>91</v>
       </c>
@@ -2789,7 +2789,7 @@
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
     </row>
-    <row r="150" spans="1:7" ht="14.4">
+    <row r="150" spans="1:7" ht="15">
       <c r="B150" s="4" t="s">
         <v>92</v>
       </c>
@@ -2799,7 +2799,7 @@
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
     </row>
-    <row r="151" spans="1:7" ht="14.4">
+    <row r="151" spans="1:7" ht="15">
       <c r="B151" s="4" t="s">
         <v>93</v>
       </c>
@@ -2809,7 +2809,7 @@
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
     </row>
-    <row r="152" spans="1:7" ht="14.4">
+    <row r="152" spans="1:7" ht="15">
       <c r="B152" s="4" t="s">
         <v>94</v>
       </c>
@@ -2819,7 +2819,7 @@
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
     </row>
-    <row r="153" spans="1:7" ht="14.4">
+    <row r="153" spans="1:7" ht="15">
       <c r="B153" s="4" t="s">
         <v>95</v>
       </c>
@@ -2829,7 +2829,7 @@
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
     </row>
-    <row r="154" spans="1:7" ht="14.4">
+    <row r="154" spans="1:7" ht="15">
       <c r="B154" s="4" t="s">
         <v>96</v>
       </c>
@@ -2839,7 +2839,7 @@
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
     </row>
-    <row r="155" spans="1:7" ht="14.4">
+    <row r="155" spans="1:7" ht="15">
       <c r="A155" s="50" t="s">
         <v>113</v>
       </c>
@@ -2852,7 +2852,7 @@
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
     </row>
-    <row r="156" spans="1:7" ht="14.4">
+    <row r="156" spans="1:7" ht="15">
       <c r="A156" s="50"/>
       <c r="B156" s="51" t="s">
         <v>115</v>
@@ -2863,7 +2863,7 @@
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
     </row>
-    <row r="157" spans="1:7" ht="14.4">
+    <row r="157" spans="1:7" ht="15">
       <c r="A157" s="50"/>
       <c r="B157" s="51" t="s">
         <v>116</v>
@@ -2874,7 +2874,7 @@
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
     </row>
-    <row r="158" spans="1:7" ht="14.4">
+    <row r="158" spans="1:7" ht="15">
       <c r="A158" s="50"/>
       <c r="B158" s="51" t="s">
         <v>117</v>
@@ -2885,7 +2885,7 @@
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
     </row>
-    <row r="159" spans="1:7" ht="14.4">
+    <row r="159" spans="1:7" ht="15">
       <c r="A159" s="50"/>
       <c r="B159" s="51" t="s">
         <v>118</v>
@@ -2896,7 +2896,7 @@
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
     </row>
-    <row r="160" spans="1:7" ht="14.4">
+    <row r="160" spans="1:7" ht="15">
       <c r="A160" s="50"/>
       <c r="B160" s="51" t="s">
         <v>119</v>
@@ -2907,7 +2907,7 @@
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
     </row>
-    <row r="161" spans="1:7" ht="14.4">
+    <row r="161" spans="1:7" ht="15">
       <c r="A161" s="50"/>
       <c r="B161" s="51" t="s">
         <v>120</v>
@@ -2918,7 +2918,7 @@
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
     </row>
-    <row r="162" spans="1:7" ht="14.4">
+    <row r="162" spans="1:7" ht="15">
       <c r="A162" s="52" t="s">
         <v>121</v>
       </c>
@@ -2931,7 +2931,7 @@
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
     </row>
-    <row r="163" spans="1:7" ht="14.4">
+    <row r="163" spans="1:7" ht="15">
       <c r="A163" s="52"/>
       <c r="B163" s="53" t="s">
         <v>123</v>
@@ -2942,7 +2942,7 @@
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
     </row>
-    <row r="164" spans="1:7" ht="14.4">
+    <row r="164" spans="1:7" ht="15">
       <c r="B164" s="26"/>
       <c r="C164" s="26"/>
       <c r="D164" s="27"/>
@@ -2950,7 +2950,7 @@
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
     </row>
-    <row r="165" spans="1:7" ht="14.4">
+    <row r="165" spans="1:7" ht="15">
       <c r="B165" s="26"/>
       <c r="C165" s="26"/>
       <c r="D165" s="27"/>
@@ -2958,7 +2958,7 @@
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
     </row>
-    <row r="166" spans="1:7" ht="14.4">
+    <row r="166" spans="1:7" ht="15">
       <c r="B166" s="26"/>
       <c r="C166" s="26"/>
       <c r="D166" s="27"/>
@@ -2966,7 +2966,7 @@
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
     </row>
-    <row r="167" spans="1:7" ht="14.4">
+    <row r="167" spans="1:7" ht="15">
       <c r="B167" s="26"/>
       <c r="C167" s="26"/>
       <c r="D167" s="27"/>
@@ -2974,7 +2974,7 @@
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
     </row>
-    <row r="168" spans="1:7" ht="14.4">
+    <row r="168" spans="1:7" ht="15">
       <c r="B168" s="26"/>
       <c r="C168" s="26"/>
       <c r="D168" s="27"/>
@@ -2982,7 +2982,7 @@
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
     </row>
-    <row r="169" spans="1:7" ht="14.4">
+    <row r="169" spans="1:7" ht="15">
       <c r="B169" s="26"/>
       <c r="C169" s="26"/>
       <c r="D169" s="27"/>
@@ -2990,7 +2990,7 @@
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
     </row>
-    <row r="170" spans="1:7" ht="14.4">
+    <row r="170" spans="1:7" ht="15">
       <c r="B170" s="26"/>
       <c r="C170" s="2"/>
       <c r="D170" s="27"/>
@@ -2998,7 +2998,7 @@
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
     </row>
-    <row r="171" spans="1:7" ht="14.4">
+    <row r="171" spans="1:7" ht="15">
       <c r="B171" s="26"/>
       <c r="C171" s="26"/>
       <c r="D171" s="27"/>
@@ -3006,7 +3006,7 @@
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
     </row>
-    <row r="172" spans="1:7" ht="14.4">
+    <row r="172" spans="1:7" ht="15">
       <c r="B172" s="26"/>
       <c r="C172" s="26"/>
       <c r="D172" s="27"/>
@@ -3014,7 +3014,7 @@
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
     </row>
-    <row r="173" spans="1:7" ht="14.4">
+    <row r="173" spans="1:7" ht="15">
       <c r="B173" s="26"/>
       <c r="C173" s="26"/>
       <c r="D173" s="27"/>
@@ -3022,7 +3022,7 @@
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
     </row>
-    <row r="174" spans="1:7" ht="14.4">
+    <row r="174" spans="1:7" ht="15">
       <c r="B174" s="26"/>
       <c r="C174" s="26"/>
       <c r="D174" s="27"/>
@@ -3030,7 +3030,7 @@
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
     </row>
-    <row r="175" spans="1:7" ht="14.4">
+    <row r="175" spans="1:7" ht="15">
       <c r="B175" s="26"/>
       <c r="C175" s="26"/>
       <c r="D175" s="27"/>
@@ -3038,7 +3038,7 @@
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
     </row>
-    <row r="176" spans="1:7" ht="14.4">
+    <row r="176" spans="1:7" ht="15">
       <c r="B176" s="26"/>
       <c r="C176" s="26"/>
       <c r="D176" s="27"/>
@@ -3046,7 +3046,7 @@
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
     </row>
-    <row r="177" spans="2:7" ht="14.4">
+    <row r="177" spans="2:7" ht="15">
       <c r="B177" s="26"/>
       <c r="C177" s="26"/>
       <c r="D177" s="27"/>
@@ -3054,7 +3054,7 @@
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
     </row>
-    <row r="178" spans="2:7" ht="14.4">
+    <row r="178" spans="2:7" ht="15">
       <c r="B178" s="26"/>
       <c r="C178" s="2"/>
       <c r="D178" s="27"/>
@@ -3062,7 +3062,7 @@
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
     </row>
-    <row r="179" spans="2:7" ht="14.4">
+    <row r="179" spans="2:7" ht="15">
       <c r="B179" s="26"/>
       <c r="C179" s="26"/>
       <c r="D179" s="27"/>
@@ -3070,7 +3070,7 @@
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
     </row>
-    <row r="180" spans="2:7" ht="14.4">
+    <row r="180" spans="2:7" ht="15">
       <c r="B180" s="26"/>
       <c r="C180" s="26"/>
       <c r="D180" s="27"/>
@@ -3078,7 +3078,7 @@
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
     </row>
-    <row r="181" spans="2:7" ht="14.4">
+    <row r="181" spans="2:7" ht="15">
       <c r="B181" s="26"/>
       <c r="C181" s="26"/>
       <c r="D181" s="27"/>
@@ -3086,7 +3086,7 @@
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
     </row>
-    <row r="182" spans="2:7" ht="14.4">
+    <row r="182" spans="2:7" ht="15">
       <c r="B182" s="26"/>
       <c r="C182" s="26"/>
       <c r="D182" s="27"/>
@@ -3094,7 +3094,7 @@
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
     </row>
-    <row r="183" spans="2:7" ht="14.4">
+    <row r="183" spans="2:7" ht="15">
       <c r="B183" s="26"/>
       <c r="C183" s="26"/>
       <c r="D183" s="27"/>
@@ -3102,7 +3102,7 @@
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
     </row>
-    <row r="184" spans="2:7" ht="14.4">
+    <row r="184" spans="2:7" ht="15">
       <c r="B184" s="26"/>
       <c r="C184" s="26"/>
       <c r="D184" s="27"/>
@@ -3110,7 +3110,7 @@
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
     </row>
-    <row r="185" spans="2:7" ht="14.4">
+    <row r="185" spans="2:7" ht="15">
       <c r="B185" s="26"/>
       <c r="C185" s="26"/>
       <c r="D185" s="27"/>
@@ -3118,7 +3118,7 @@
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
     </row>
-    <row r="186" spans="2:7" ht="14.4">
+    <row r="186" spans="2:7" ht="15">
       <c r="B186" s="26"/>
       <c r="C186" s="2"/>
       <c r="D186" s="27"/>
@@ -3126,7 +3126,7 @@
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
     </row>
-    <row r="187" spans="2:7" ht="14.4">
+    <row r="187" spans="2:7" ht="15">
       <c r="B187" s="26"/>
       <c r="C187" s="26"/>
       <c r="D187" s="27"/>
@@ -3134,7 +3134,7 @@
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
     </row>
-    <row r="188" spans="2:7" ht="14.4">
+    <row r="188" spans="2:7" ht="15">
       <c r="B188" s="26"/>
       <c r="C188" s="26"/>
       <c r="D188" s="27"/>
@@ -3142,7 +3142,7 @@
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
     </row>
-    <row r="189" spans="2:7" ht="14.4">
+    <row r="189" spans="2:7" ht="15">
       <c r="B189" s="26"/>
       <c r="C189" s="26"/>
       <c r="D189" s="27"/>
@@ -3150,7 +3150,7 @@
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
     </row>
-    <row r="190" spans="2:7" ht="14.4">
+    <row r="190" spans="2:7" ht="15">
       <c r="B190" s="26"/>
       <c r="C190" s="2"/>
       <c r="D190" s="27"/>
@@ -3158,7 +3158,7 @@
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
     </row>
-    <row r="191" spans="2:7" ht="14.4">
+    <row r="191" spans="2:7" ht="15">
       <c r="B191" s="26"/>
       <c r="C191" s="26"/>
       <c r="D191" s="27"/>
@@ -3166,7 +3166,7 @@
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
     </row>
-    <row r="192" spans="2:7" ht="14.4">
+    <row r="192" spans="2:7" ht="15">
       <c r="B192" s="26"/>
       <c r="C192" s="26"/>
       <c r="D192" s="27"/>
@@ -3174,7 +3174,7 @@
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
     </row>
-    <row r="193" spans="2:7" ht="14.4">
+    <row r="193" spans="2:7" ht="15">
       <c r="B193" s="26"/>
       <c r="C193" s="26"/>
       <c r="D193" s="3"/>
@@ -3182,7 +3182,7 @@
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
     </row>
-    <row r="194" spans="2:7" ht="13.2">
+    <row r="194" spans="2:7" ht="12.75">
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
       <c r="D194" s="27"/>
@@ -3190,7 +3190,7 @@
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
     </row>
-    <row r="195" spans="2:7" ht="13.2">
+    <row r="195" spans="2:7" ht="12.75">
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
       <c r="D195" s="27"/>
@@ -3198,7 +3198,7 @@
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
     </row>
-    <row r="196" spans="2:7" ht="13.2">
+    <row r="196" spans="2:7" ht="12.75">
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
       <c r="D196" s="3"/>
@@ -3206,7 +3206,7 @@
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
     </row>
-    <row r="197" spans="2:7" ht="13.2">
+    <row r="197" spans="2:7" ht="12.75">
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
       <c r="D197" s="3"/>
@@ -3214,7 +3214,7 @@
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
     </row>
-    <row r="198" spans="2:7" ht="13.2">
+    <row r="198" spans="2:7" ht="12.75">
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
       <c r="D198" s="3"/>
@@ -3222,7 +3222,7 @@
       <c r="F198" s="3"/>
       <c r="G198" s="3"/>
     </row>
-    <row r="199" spans="2:7" ht="13.2">
+    <row r="199" spans="2:7" ht="12.75">
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
       <c r="D199" s="3"/>
@@ -3230,7 +3230,7 @@
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
     </row>
-    <row r="200" spans="2:7" ht="13.2">
+    <row r="200" spans="2:7" ht="12.75">
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
       <c r="D200" s="3"/>
@@ -3238,7 +3238,7 @@
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
     </row>
-    <row r="201" spans="2:7" ht="13.2">
+    <row r="201" spans="2:7" ht="12.75">
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="D201" s="3"/>
@@ -3246,7 +3246,7 @@
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
     </row>
-    <row r="202" spans="2:7" ht="13.2">
+    <row r="202" spans="2:7" ht="12.75">
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
       <c r="D202" s="3"/>
@@ -3254,7 +3254,7 @@
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
     </row>
-    <row r="203" spans="2:7" ht="13.2">
+    <row r="203" spans="2:7" ht="12.75">
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
       <c r="D203" s="3"/>
@@ -3262,7 +3262,7 @@
       <c r="F203" s="3"/>
       <c r="G203" s="3"/>
     </row>
-    <row r="204" spans="2:7" ht="13.2">
+    <row r="204" spans="2:7" ht="12.75">
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="D204" s="3"/>
@@ -3270,7 +3270,7 @@
       <c r="F204" s="3"/>
       <c r="G204" s="3"/>
     </row>
-    <row r="205" spans="2:7" ht="13.2">
+    <row r="205" spans="2:7" ht="12.75">
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
       <c r="D205" s="3"/>
@@ -3278,7 +3278,7 @@
       <c r="F205" s="3"/>
       <c r="G205" s="3"/>
     </row>
-    <row r="206" spans="2:7" ht="13.2">
+    <row r="206" spans="2:7" ht="12.75">
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
       <c r="D206" s="3"/>
@@ -3286,7 +3286,7 @@
       <c r="F206" s="3"/>
       <c r="G206" s="3"/>
     </row>
-    <row r="207" spans="2:7" ht="14.4">
+    <row r="207" spans="2:7" ht="15">
       <c r="B207" s="2"/>
       <c r="C207" s="26"/>
       <c r="D207" s="27"/>
@@ -3294,7 +3294,7 @@
       <c r="F207" s="3"/>
       <c r="G207" s="3"/>
     </row>
-    <row r="208" spans="2:7" ht="14.4">
+    <row r="208" spans="2:7" ht="15">
       <c r="B208" s="2"/>
       <c r="C208" s="26"/>
       <c r="D208" s="27"/>
@@ -3302,7 +3302,7 @@
       <c r="F208" s="3"/>
       <c r="G208" s="3"/>
     </row>
-    <row r="209" spans="2:7" ht="14.4">
+    <row r="209" spans="2:7" ht="15">
       <c r="B209" s="2"/>
       <c r="C209" s="26"/>
       <c r="D209" s="27"/>
@@ -3310,7 +3310,7 @@
       <c r="F209" s="3"/>
       <c r="G209" s="3"/>
     </row>
-    <row r="210" spans="2:7" ht="13.2">
+    <row r="210" spans="2:7" ht="12.75">
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
       <c r="D210" s="3"/>
@@ -3318,7 +3318,7 @@
       <c r="F210" s="3"/>
       <c r="G210" s="3"/>
     </row>
-    <row r="211" spans="2:7" ht="13.2">
+    <row r="211" spans="2:7" ht="12.75">
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
       <c r="D211" s="3"/>
@@ -3326,7 +3326,7 @@
       <c r="F211" s="3"/>
       <c r="G211" s="3"/>
     </row>
-    <row r="212" spans="2:7" ht="13.2">
+    <row r="212" spans="2:7" ht="12.75">
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
       <c r="D212" s="3"/>
@@ -3334,7 +3334,7 @@
       <c r="F212" s="3"/>
       <c r="G212" s="3"/>
     </row>
-    <row r="213" spans="2:7" ht="13.2">
+    <row r="213" spans="2:7" ht="12.75">
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
       <c r="D213" s="3"/>
@@ -3342,7 +3342,7 @@
       <c r="F213" s="3"/>
       <c r="G213" s="3"/>
     </row>
-    <row r="214" spans="2:7" ht="13.2">
+    <row r="214" spans="2:7" ht="12.75">
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
       <c r="D214" s="3"/>
@@ -3350,7 +3350,7 @@
       <c r="F214" s="3"/>
       <c r="G214" s="3"/>
     </row>
-    <row r="215" spans="2:7" ht="14.4">
+    <row r="215" spans="2:7" ht="15">
       <c r="B215" s="2"/>
       <c r="C215" s="26"/>
       <c r="D215" s="27"/>
@@ -3358,7 +3358,7 @@
       <c r="F215" s="3"/>
       <c r="G215" s="3"/>
     </row>
-    <row r="216" spans="2:7" ht="14.4">
+    <row r="216" spans="2:7" ht="15">
       <c r="B216" s="2"/>
       <c r="C216" s="26"/>
       <c r="D216" s="27"/>
@@ -3366,7 +3366,7 @@
       <c r="F216" s="3"/>
       <c r="G216" s="3"/>
     </row>
-    <row r="217" spans="2:7" ht="14.4">
+    <row r="217" spans="2:7" ht="15">
       <c r="B217" s="2"/>
       <c r="C217" s="26"/>
       <c r="D217" s="27"/>
@@ -3374,7 +3374,7 @@
       <c r="F217" s="3"/>
       <c r="G217" s="3"/>
     </row>
-    <row r="218" spans="2:7" ht="14.4">
+    <row r="218" spans="2:7" ht="15">
       <c r="B218" s="2"/>
       <c r="C218" s="26"/>
       <c r="D218" s="27"/>
@@ -3382,7 +3382,7 @@
       <c r="F218" s="3"/>
       <c r="G218" s="3"/>
     </row>
-    <row r="219" spans="2:7" ht="14.4">
+    <row r="219" spans="2:7" ht="15">
       <c r="B219" s="2"/>
       <c r="C219" s="26"/>
       <c r="D219" s="27"/>
@@ -3390,7 +3390,7 @@
       <c r="F219" s="3"/>
       <c r="G219" s="3"/>
     </row>
-    <row r="220" spans="2:7" ht="14.4">
+    <row r="220" spans="2:7" ht="15">
       <c r="B220" s="2"/>
       <c r="C220" s="26"/>
       <c r="D220" s="27"/>
@@ -3398,7 +3398,7 @@
       <c r="F220" s="3"/>
       <c r="G220" s="3"/>
     </row>
-    <row r="221" spans="2:7" ht="13.2">
+    <row r="221" spans="2:7" ht="12.75">
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
       <c r="D221" s="27"/>
@@ -3406,7 +3406,7 @@
       <c r="F221" s="3"/>
       <c r="G221" s="3"/>
     </row>
-    <row r="222" spans="2:7" ht="14.4">
+    <row r="222" spans="2:7" ht="15">
       <c r="B222" s="2"/>
       <c r="C222" s="26"/>
       <c r="D222" s="27"/>
@@ -3414,7 +3414,7 @@
       <c r="F222" s="3"/>
       <c r="G222" s="3"/>
     </row>
-    <row r="223" spans="2:7" ht="14.4">
+    <row r="223" spans="2:7" ht="15">
       <c r="B223" s="2"/>
       <c r="C223" s="26"/>
       <c r="D223" s="27"/>
@@ -3422,7 +3422,7 @@
       <c r="F223" s="3"/>
       <c r="G223" s="3"/>
     </row>
-    <row r="224" spans="2:7" ht="14.4">
+    <row r="224" spans="2:7" ht="15">
       <c r="B224" s="2"/>
       <c r="C224" s="26"/>
       <c r="D224" s="27"/>
@@ -3430,7 +3430,7 @@
       <c r="F224" s="3"/>
       <c r="G224" s="3"/>
     </row>
-    <row r="225" spans="2:7" ht="14.4">
+    <row r="225" spans="2:7" ht="15">
       <c r="B225" s="2"/>
       <c r="C225" s="26"/>
       <c r="D225" s="27"/>
@@ -3438,7 +3438,7 @@
       <c r="F225" s="3"/>
       <c r="G225" s="3"/>
     </row>
-    <row r="226" spans="2:7" ht="14.4">
+    <row r="226" spans="2:7" ht="15">
       <c r="B226" s="2"/>
       <c r="C226" s="26"/>
       <c r="D226" s="27"/>
@@ -3446,7 +3446,7 @@
       <c r="F226" s="3"/>
       <c r="G226" s="3"/>
     </row>
-    <row r="227" spans="2:7" ht="14.4">
+    <row r="227" spans="2:7" ht="15">
       <c r="B227" s="2"/>
       <c r="C227" s="26"/>
       <c r="D227" s="27"/>
@@ -3454,7 +3454,7 @@
       <c r="F227" s="3"/>
       <c r="G227" s="3"/>
     </row>
-    <row r="228" spans="2:7" ht="14.4">
+    <row r="228" spans="2:7" ht="15">
       <c r="B228" s="2"/>
       <c r="C228" s="26"/>
       <c r="D228" s="27"/>
@@ -3462,7 +3462,7 @@
       <c r="F228" s="3"/>
       <c r="G228" s="3"/>
     </row>
-    <row r="229" spans="2:7" ht="14.4">
+    <row r="229" spans="2:7" ht="15">
       <c r="B229" s="2"/>
       <c r="C229" s="26"/>
       <c r="D229" s="27"/>
@@ -3470,7 +3470,7 @@
       <c r="F229" s="3"/>
       <c r="G229" s="3"/>
     </row>
-    <row r="230" spans="2:7" ht="14.4">
+    <row r="230" spans="2:7" ht="15">
       <c r="B230" s="2"/>
       <c r="C230" s="26"/>
       <c r="D230" s="27"/>
@@ -3478,7 +3478,7 @@
       <c r="F230" s="3"/>
       <c r="G230" s="3"/>
     </row>
-    <row r="231" spans="2:7" ht="14.4">
+    <row r="231" spans="2:7" ht="15">
       <c r="B231" s="2"/>
       <c r="C231" s="26"/>
       <c r="D231" s="27"/>
@@ -3486,7 +3486,7 @@
       <c r="F231" s="3"/>
       <c r="G231" s="3"/>
     </row>
-    <row r="232" spans="2:7" ht="14.4">
+    <row r="232" spans="2:7" ht="15">
       <c r="B232" s="2"/>
       <c r="C232" s="26"/>
       <c r="D232" s="27"/>
@@ -3494,7 +3494,7 @@
       <c r="F232" s="3"/>
       <c r="G232" s="3"/>
     </row>
-    <row r="233" spans="2:7" ht="14.4">
+    <row r="233" spans="2:7" ht="15">
       <c r="B233" s="2"/>
       <c r="C233" s="26"/>
       <c r="D233" s="27"/>
@@ -3502,7 +3502,7 @@
       <c r="F233" s="3"/>
       <c r="G233" s="3"/>
     </row>
-    <row r="234" spans="2:7" ht="14.4">
+    <row r="234" spans="2:7" ht="15">
       <c r="B234" s="2"/>
       <c r="C234" s="26"/>
       <c r="D234" s="27"/>
@@ -3510,7 +3510,7 @@
       <c r="F234" s="3"/>
       <c r="G234" s="3"/>
     </row>
-    <row r="235" spans="2:7" ht="14.4">
+    <row r="235" spans="2:7" ht="15">
       <c r="B235" s="2"/>
       <c r="C235" s="26"/>
       <c r="D235" s="27"/>
@@ -3518,7 +3518,7 @@
       <c r="F235" s="3"/>
       <c r="G235" s="3"/>
     </row>
-    <row r="236" spans="2:7" ht="14.4">
+    <row r="236" spans="2:7" ht="15">
       <c r="B236" s="2"/>
       <c r="C236" s="26"/>
       <c r="D236" s="27"/>
@@ -3526,7 +3526,7 @@
       <c r="F236" s="3"/>
       <c r="G236" s="3"/>
     </row>
-    <row r="237" spans="2:7" ht="14.4">
+    <row r="237" spans="2:7" ht="15">
       <c r="B237" s="7"/>
       <c r="C237" s="4"/>
       <c r="D237" s="5"/>
@@ -3534,7 +3534,7 @@
       <c r="F237" s="6"/>
       <c r="G237" s="6"/>
     </row>
-    <row r="238" spans="2:7" ht="14.4">
+    <row r="238" spans="2:7" ht="15">
       <c r="B238" s="7"/>
       <c r="C238" s="4"/>
       <c r="D238" s="5"/>
@@ -3542,7 +3542,7 @@
       <c r="F238" s="6"/>
       <c r="G238" s="6"/>
     </row>
-    <row r="239" spans="2:7" ht="14.4">
+    <row r="239" spans="2:7" ht="15">
       <c r="B239" s="7"/>
       <c r="C239" s="4"/>
       <c r="D239" s="5"/>
@@ -3550,7 +3550,7 @@
       <c r="F239" s="6"/>
       <c r="G239" s="6"/>
     </row>
-    <row r="240" spans="2:7" ht="14.4">
+    <row r="240" spans="2:7" ht="15">
       <c r="B240" s="7"/>
       <c r="C240" s="4"/>
       <c r="D240" s="5"/>
@@ -3558,7 +3558,7 @@
       <c r="F240" s="6"/>
       <c r="G240" s="6"/>
     </row>
-    <row r="241" spans="2:7" ht="14.4">
+    <row r="241" spans="2:7" ht="15">
       <c r="B241" s="7"/>
       <c r="C241" s="4"/>
       <c r="D241" s="5"/>
@@ -3566,7 +3566,7 @@
       <c r="F241" s="6"/>
       <c r="G241" s="6"/>
     </row>
-    <row r="242" spans="2:7" ht="14.4">
+    <row r="242" spans="2:7" ht="15">
       <c r="B242" s="7"/>
       <c r="C242" s="4"/>
       <c r="D242" s="5"/>
@@ -3574,7 +3574,7 @@
       <c r="F242" s="6"/>
       <c r="G242" s="6"/>
     </row>
-    <row r="243" spans="2:7" ht="14.4">
+    <row r="243" spans="2:7" ht="15">
       <c r="B243" s="7"/>
       <c r="C243" s="4"/>
       <c r="D243" s="5"/>
@@ -3582,7 +3582,7 @@
       <c r="F243" s="6"/>
       <c r="G243" s="6"/>
     </row>
-    <row r="244" spans="2:7" ht="14.4">
+    <row r="244" spans="2:7" ht="15">
       <c r="B244" s="7"/>
       <c r="C244" s="4"/>
       <c r="D244" s="5"/>
@@ -3590,7 +3590,7 @@
       <c r="F244" s="6"/>
       <c r="G244" s="6"/>
     </row>
-    <row r="245" spans="2:7" ht="14.4">
+    <row r="245" spans="2:7" ht="15">
       <c r="B245" s="7"/>
       <c r="C245" s="4"/>
       <c r="D245" s="5"/>
@@ -3598,7 +3598,7 @@
       <c r="F245" s="6"/>
       <c r="G245" s="6"/>
     </row>
-    <row r="246" spans="2:7" ht="14.4">
+    <row r="246" spans="2:7" ht="15">
       <c r="B246" s="7"/>
       <c r="C246" s="4"/>
       <c r="D246" s="5"/>
@@ -3606,7 +3606,7 @@
       <c r="F246" s="6"/>
       <c r="G246" s="6"/>
     </row>
-    <row r="247" spans="2:7" ht="14.4">
+    <row r="247" spans="2:7" ht="15">
       <c r="B247" s="7"/>
       <c r="C247" s="4"/>
       <c r="D247" s="5"/>
@@ -3614,7 +3614,7 @@
       <c r="F247" s="6"/>
       <c r="G247" s="6"/>
     </row>
-    <row r="248" spans="2:7" ht="14.4">
+    <row r="248" spans="2:7" ht="15">
       <c r="B248" s="7"/>
       <c r="C248" s="4"/>
       <c r="D248" s="5"/>
@@ -3622,7 +3622,7 @@
       <c r="F248" s="6"/>
       <c r="G248" s="6"/>
     </row>
-    <row r="249" spans="2:7" ht="14.4">
+    <row r="249" spans="2:7" ht="15">
       <c r="B249" s="7"/>
       <c r="C249" s="4"/>
       <c r="D249" s="5"/>
@@ -3630,7 +3630,7 @@
       <c r="F249" s="6"/>
       <c r="G249" s="6"/>
     </row>
-    <row r="250" spans="2:7" ht="14.4">
+    <row r="250" spans="2:7" ht="15">
       <c r="B250" s="7"/>
       <c r="C250" s="4"/>
       <c r="D250" s="5"/>
@@ -3638,7 +3638,7 @@
       <c r="F250" s="6"/>
       <c r="G250" s="6"/>
     </row>
-    <row r="251" spans="2:7" ht="14.4">
+    <row r="251" spans="2:7" ht="15">
       <c r="B251" s="7"/>
       <c r="C251" s="4"/>
       <c r="D251" s="5"/>
@@ -3646,7 +3646,7 @@
       <c r="F251" s="6"/>
       <c r="G251" s="6"/>
     </row>
-    <row r="252" spans="2:7" ht="14.4">
+    <row r="252" spans="2:7" ht="15">
       <c r="B252" s="7"/>
       <c r="C252" s="4"/>
       <c r="D252" s="5"/>
@@ -3654,7 +3654,7 @@
       <c r="F252" s="6"/>
       <c r="G252" s="6"/>
     </row>
-    <row r="253" spans="2:7" ht="14.4">
+    <row r="253" spans="2:7" ht="15">
       <c r="B253" s="7"/>
       <c r="C253" s="4"/>
       <c r="D253" s="5"/>
@@ -3662,7 +3662,7 @@
       <c r="F253" s="6"/>
       <c r="G253" s="6"/>
     </row>
-    <row r="254" spans="2:7" ht="14.4">
+    <row r="254" spans="2:7" ht="15">
       <c r="B254" s="7"/>
       <c r="C254" s="4"/>
       <c r="D254" s="5"/>
@@ -3670,7 +3670,7 @@
       <c r="F254" s="6"/>
       <c r="G254" s="6"/>
     </row>
-    <row r="255" spans="2:7" ht="14.4">
+    <row r="255" spans="2:7" ht="15">
       <c r="B255" s="7"/>
       <c r="C255" s="4"/>
       <c r="D255" s="5"/>
@@ -3678,7 +3678,7 @@
       <c r="F255" s="6"/>
       <c r="G255" s="6"/>
     </row>
-    <row r="256" spans="2:7" ht="14.4">
+    <row r="256" spans="2:7" ht="15">
       <c r="B256" s="7"/>
       <c r="C256" s="4"/>
       <c r="D256" s="5"/>
@@ -3686,7 +3686,7 @@
       <c r="F256" s="6"/>
       <c r="G256" s="6"/>
     </row>
-    <row r="257" spans="2:7" ht="14.4">
+    <row r="257" spans="2:7" ht="15">
       <c r="B257" s="7"/>
       <c r="C257" s="4"/>
       <c r="D257" s="5"/>
@@ -3694,7 +3694,7 @@
       <c r="F257" s="6"/>
       <c r="G257" s="6"/>
     </row>
-    <row r="258" spans="2:7" ht="14.4">
+    <row r="258" spans="2:7" ht="15">
       <c r="B258" s="7"/>
       <c r="C258" s="4"/>
       <c r="D258" s="5"/>
@@ -3702,7 +3702,7 @@
       <c r="F258" s="6"/>
       <c r="G258" s="6"/>
     </row>
-    <row r="259" spans="2:7" ht="14.4">
+    <row r="259" spans="2:7" ht="15">
       <c r="B259" s="7"/>
       <c r="C259" s="4"/>
       <c r="D259" s="5"/>
@@ -3710,7 +3710,7 @@
       <c r="F259" s="6"/>
       <c r="G259" s="6"/>
     </row>
-    <row r="260" spans="2:7" ht="14.4">
+    <row r="260" spans="2:7" ht="15">
       <c r="B260" s="7"/>
       <c r="C260" s="4"/>
       <c r="D260" s="5"/>
@@ -3718,7 +3718,7 @@
       <c r="F260" s="6"/>
       <c r="G260" s="6"/>
     </row>
-    <row r="261" spans="2:7" ht="14.4">
+    <row r="261" spans="2:7" ht="15">
       <c r="B261" s="7"/>
       <c r="C261" s="4"/>
       <c r="D261" s="5"/>
@@ -3726,7 +3726,7 @@
       <c r="F261" s="6"/>
       <c r="G261" s="6"/>
     </row>
-    <row r="262" spans="2:7" ht="14.4">
+    <row r="262" spans="2:7" ht="15">
       <c r="B262" s="7"/>
       <c r="C262" s="4"/>
       <c r="D262" s="5"/>
@@ -3734,7 +3734,7 @@
       <c r="F262" s="6"/>
       <c r="G262" s="6"/>
     </row>
-    <row r="263" spans="2:7" ht="13.2">
+    <row r="263" spans="2:7" ht="12.75">
       <c r="B263" s="7"/>
       <c r="C263" s="7"/>
       <c r="D263" s="5"/>
@@ -3742,7 +3742,7 @@
       <c r="F263" s="6"/>
       <c r="G263" s="6"/>
     </row>
-    <row r="264" spans="2:7" ht="14.4">
+    <row r="264" spans="2:7" ht="15">
       <c r="B264" s="7"/>
       <c r="C264" s="4"/>
       <c r="D264" s="5"/>
@@ -3750,7 +3750,7 @@
       <c r="F264" s="6"/>
       <c r="G264" s="6"/>
     </row>
-    <row r="265" spans="2:7" ht="14.4">
+    <row r="265" spans="2:7" ht="15">
       <c r="B265" s="7"/>
       <c r="C265" s="4"/>
       <c r="D265" s="5"/>
@@ -3758,7 +3758,7 @@
       <c r="F265" s="6"/>
       <c r="G265" s="6"/>
     </row>
-    <row r="266" spans="2:7" ht="14.4">
+    <row r="266" spans="2:7" ht="15">
       <c r="B266" s="7"/>
       <c r="C266" s="4"/>
       <c r="D266" s="5"/>
@@ -3766,7 +3766,7 @@
       <c r="F266" s="6"/>
       <c r="G266" s="6"/>
     </row>
-    <row r="267" spans="2:7" ht="14.4">
+    <row r="267" spans="2:7" ht="15">
       <c r="B267" s="7"/>
       <c r="C267" s="4"/>
       <c r="D267" s="5"/>
@@ -3774,7 +3774,7 @@
       <c r="F267" s="6"/>
       <c r="G267" s="6"/>
     </row>
-    <row r="268" spans="2:7" ht="14.4">
+    <row r="268" spans="2:7" ht="15">
       <c r="B268" s="7"/>
       <c r="C268" s="4"/>
       <c r="D268" s="5"/>
@@ -3782,7 +3782,7 @@
       <c r="F268" s="6"/>
       <c r="G268" s="6"/>
     </row>
-    <row r="269" spans="2:7" ht="14.4">
+    <row r="269" spans="2:7" ht="15">
       <c r="B269" s="7"/>
       <c r="C269" s="4"/>
       <c r="D269" s="5"/>
@@ -3790,7 +3790,7 @@
       <c r="F269" s="6"/>
       <c r="G269" s="6"/>
     </row>
-    <row r="270" spans="2:7" ht="13.2">
+    <row r="270" spans="2:7" ht="12.75">
       <c r="B270" s="7"/>
       <c r="C270" s="7"/>
       <c r="D270" s="5"/>
@@ -3798,7 +3798,7 @@
       <c r="F270" s="6"/>
       <c r="G270" s="6"/>
     </row>
-    <row r="271" spans="2:7" ht="14.4">
+    <row r="271" spans="2:7" ht="15">
       <c r="B271" s="7"/>
       <c r="C271" s="4"/>
       <c r="D271" s="5"/>
@@ -3806,7 +3806,7 @@
       <c r="F271" s="6"/>
       <c r="G271" s="6"/>
     </row>
-    <row r="272" spans="2:7" ht="14.4">
+    <row r="272" spans="2:7" ht="15">
       <c r="B272" s="7"/>
       <c r="C272" s="4"/>
       <c r="D272" s="5"/>
@@ -3814,7 +3814,7 @@
       <c r="F272" s="6"/>
       <c r="G272" s="6"/>
     </row>
-    <row r="273" spans="2:7" ht="14.4">
+    <row r="273" spans="2:7" ht="15">
       <c r="B273" s="7"/>
       <c r="C273" s="4"/>
       <c r="D273" s="5"/>
@@ -3822,7 +3822,7 @@
       <c r="F273" s="6"/>
       <c r="G273" s="6"/>
     </row>
-    <row r="274" spans="2:7" ht="14.4">
+    <row r="274" spans="2:7" ht="15">
       <c r="B274" s="7"/>
       <c r="C274" s="4"/>
       <c r="D274" s="5"/>
@@ -3830,7 +3830,7 @@
       <c r="F274" s="6"/>
       <c r="G274" s="6"/>
     </row>
-    <row r="275" spans="2:7" ht="13.2">
+    <row r="275" spans="2:7" ht="12.75">
       <c r="B275" s="7"/>
       <c r="C275" s="7"/>
       <c r="D275" s="5"/>
@@ -3838,7 +3838,7 @@
       <c r="F275" s="6"/>
       <c r="G275" s="6"/>
     </row>
-    <row r="276" spans="2:7" ht="14.4">
+    <row r="276" spans="2:7" ht="15">
       <c r="B276" s="7"/>
       <c r="C276" s="4"/>
       <c r="D276" s="5"/>
@@ -3846,7 +3846,7 @@
       <c r="F276" s="6"/>
       <c r="G276" s="6"/>
     </row>
-    <row r="277" spans="2:7" ht="14.4">
+    <row r="277" spans="2:7" ht="15">
       <c r="B277" s="7"/>
       <c r="C277" s="4"/>
       <c r="D277" s="5"/>
@@ -3854,7 +3854,7 @@
       <c r="F277" s="6"/>
       <c r="G277" s="6"/>
     </row>
-    <row r="278" spans="2:7" ht="14.4">
+    <row r="278" spans="2:7" ht="15">
       <c r="B278" s="7"/>
       <c r="C278" s="4"/>
       <c r="D278" s="5"/>
@@ -3862,7 +3862,7 @@
       <c r="F278" s="6"/>
       <c r="G278" s="6"/>
     </row>
-    <row r="279" spans="2:7" ht="14.4">
+    <row r="279" spans="2:7" ht="15">
       <c r="B279" s="7"/>
       <c r="C279" s="4"/>
       <c r="D279" s="5"/>
@@ -3870,7 +3870,7 @@
       <c r="F279" s="6"/>
       <c r="G279" s="6"/>
     </row>
-    <row r="280" spans="2:7" ht="14.4">
+    <row r="280" spans="2:7" ht="15">
       <c r="B280" s="7"/>
       <c r="C280" s="4"/>
       <c r="D280" s="5"/>
@@ -3878,7 +3878,7 @@
       <c r="F280" s="6"/>
       <c r="G280" s="6"/>
     </row>
-    <row r="281" spans="2:7" ht="14.4">
+    <row r="281" spans="2:7" ht="15">
       <c r="B281" s="7"/>
       <c r="C281" s="4"/>
       <c r="D281" s="5"/>
@@ -3886,7 +3886,7 @@
       <c r="F281" s="6"/>
       <c r="G281" s="6"/>
     </row>
-    <row r="282" spans="2:7" ht="13.2">
+    <row r="282" spans="2:7" ht="12.75">
       <c r="B282" s="7"/>
       <c r="C282" s="7"/>
       <c r="D282" s="5"/>
@@ -3894,7 +3894,7 @@
       <c r="F282" s="6"/>
       <c r="G282" s="6"/>
     </row>
-    <row r="283" spans="2:7" ht="14.4">
+    <row r="283" spans="2:7" ht="15">
       <c r="B283" s="7"/>
       <c r="C283" s="4"/>
       <c r="D283" s="5"/>
@@ -3902,7 +3902,7 @@
       <c r="F283" s="6"/>
       <c r="G283" s="6"/>
     </row>
-    <row r="284" spans="2:7" ht="14.4">
+    <row r="284" spans="2:7" ht="15">
       <c r="B284" s="7"/>
       <c r="C284" s="4"/>
       <c r="D284" s="5"/>
@@ -3910,7 +3910,7 @@
       <c r="F284" s="6"/>
       <c r="G284" s="6"/>
     </row>
-    <row r="285" spans="2:7" ht="14.4">
+    <row r="285" spans="2:7" ht="15">
       <c r="B285" s="7"/>
       <c r="C285" s="4"/>
       <c r="D285" s="5"/>
@@ -3918,7 +3918,7 @@
       <c r="F285" s="6"/>
       <c r="G285" s="6"/>
     </row>
-    <row r="286" spans="2:7" ht="14.4">
+    <row r="286" spans="2:7" ht="15">
       <c r="B286" s="7"/>
       <c r="C286" s="4"/>
       <c r="D286" s="5"/>
@@ -3926,7 +3926,7 @@
       <c r="F286" s="6"/>
       <c r="G286" s="6"/>
     </row>
-    <row r="287" spans="2:7" ht="14.4">
+    <row r="287" spans="2:7" ht="15">
       <c r="B287" s="7"/>
       <c r="C287" s="4"/>
       <c r="D287" s="5"/>
@@ -3934,7 +3934,7 @@
       <c r="F287" s="6"/>
       <c r="G287" s="6"/>
     </row>
-    <row r="288" spans="2:7" ht="13.2">
+    <row r="288" spans="2:7" ht="12.75">
       <c r="B288" s="7"/>
       <c r="C288" s="7"/>
       <c r="D288" s="5"/>
@@ -3942,7 +3942,7 @@
       <c r="F288" s="6"/>
       <c r="G288" s="6"/>
     </row>
-    <row r="289" spans="2:7" ht="14.4">
+    <row r="289" spans="2:7" ht="15">
       <c r="B289" s="7"/>
       <c r="C289" s="4"/>
       <c r="D289" s="5"/>
@@ -3950,7 +3950,7 @@
       <c r="F289" s="6"/>
       <c r="G289" s="6"/>
     </row>
-    <row r="290" spans="2:7" ht="14.4">
+    <row r="290" spans="2:7" ht="15">
       <c r="B290" s="7"/>
       <c r="C290" s="4"/>
       <c r="D290" s="5"/>
@@ -3958,7 +3958,7 @@
       <c r="F290" s="6"/>
       <c r="G290" s="6"/>
     </row>
-    <row r="291" spans="2:7" ht="14.4">
+    <row r="291" spans="2:7" ht="15">
       <c r="B291" s="7"/>
       <c r="C291" s="4"/>
       <c r="D291" s="5"/>
@@ -3966,7 +3966,7 @@
       <c r="F291" s="6"/>
       <c r="G291" s="6"/>
     </row>
-    <row r="292" spans="2:7" ht="14.4">
+    <row r="292" spans="2:7" ht="15">
       <c r="B292" s="7"/>
       <c r="C292" s="4"/>
       <c r="D292" s="5"/>
@@ -3974,7 +3974,7 @@
       <c r="F292" s="6"/>
       <c r="G292" s="6"/>
     </row>
-    <row r="293" spans="2:7" ht="14.4">
+    <row r="293" spans="2:7" ht="15">
       <c r="B293" s="7"/>
       <c r="C293" s="4"/>
       <c r="D293" s="5"/>
@@ -3982,7 +3982,7 @@
       <c r="F293" s="6"/>
       <c r="G293" s="6"/>
     </row>
-    <row r="294" spans="2:7" ht="14.4">
+    <row r="294" spans="2:7" ht="15">
       <c r="B294" s="7"/>
       <c r="C294" s="4"/>
       <c r="D294" s="5"/>
@@ -3990,7 +3990,7 @@
       <c r="F294" s="6"/>
       <c r="G294" s="6"/>
     </row>
-    <row r="295" spans="2:7" ht="13.2">
+    <row r="295" spans="2:7" ht="12.75">
       <c r="B295" s="7"/>
       <c r="C295" s="7"/>
       <c r="D295" s="5"/>
@@ -3998,7 +3998,7 @@
       <c r="F295" s="6"/>
       <c r="G295" s="6"/>
     </row>
-    <row r="296" spans="2:7" ht="14.4">
+    <row r="296" spans="2:7" ht="15">
       <c r="B296" s="7"/>
       <c r="C296" s="4"/>
       <c r="D296" s="5"/>
@@ -4006,7 +4006,7 @@
       <c r="F296" s="6"/>
       <c r="G296" s="6"/>
     </row>
-    <row r="297" spans="2:7" ht="14.4">
+    <row r="297" spans="2:7" ht="15">
       <c r="B297" s="7"/>
       <c r="C297" s="4"/>
       <c r="D297" s="5"/>
@@ -4014,7 +4014,7 @@
       <c r="F297" s="6"/>
       <c r="G297" s="6"/>
     </row>
-    <row r="298" spans="2:7" ht="14.4">
+    <row r="298" spans="2:7" ht="15">
       <c r="B298" s="7"/>
       <c r="C298" s="4"/>
       <c r="D298" s="5"/>
@@ -4022,7 +4022,7 @@
       <c r="F298" s="6"/>
       <c r="G298" s="6"/>
     </row>
-    <row r="299" spans="2:7" ht="14.4">
+    <row r="299" spans="2:7" ht="15">
       <c r="B299" s="7"/>
       <c r="C299" s="4"/>
       <c r="D299" s="5"/>
@@ -4030,7 +4030,7 @@
       <c r="F299" s="6"/>
       <c r="G299" s="6"/>
     </row>
-    <row r="300" spans="2:7" ht="14.4">
+    <row r="300" spans="2:7" ht="15">
       <c r="B300" s="7"/>
       <c r="C300" s="4"/>
       <c r="D300" s="5"/>
@@ -4038,7 +4038,7 @@
       <c r="F300" s="6"/>
       <c r="G300" s="6"/>
     </row>
-    <row r="301" spans="2:7" ht="14.4">
+    <row r="301" spans="2:7" ht="15">
       <c r="B301" s="7"/>
       <c r="C301" s="4"/>
       <c r="D301" s="5"/>
@@ -4046,7 +4046,7 @@
       <c r="F301" s="6"/>
       <c r="G301" s="6"/>
     </row>
-    <row r="302" spans="2:7" ht="14.4">
+    <row r="302" spans="2:7" ht="15">
       <c r="B302" s="7"/>
       <c r="C302" s="4"/>
       <c r="D302" s="5"/>
@@ -4054,7 +4054,7 @@
       <c r="F302" s="6"/>
       <c r="G302" s="6"/>
     </row>
-    <row r="303" spans="2:7" ht="13.2">
+    <row r="303" spans="2:7" ht="12.75">
       <c r="B303" s="7"/>
       <c r="C303" s="7"/>
       <c r="D303" s="5"/>
@@ -4062,7 +4062,7 @@
       <c r="F303" s="6"/>
       <c r="G303" s="6"/>
     </row>
-    <row r="304" spans="2:7" ht="14.4">
+    <row r="304" spans="2:7" ht="15">
       <c r="B304" s="7"/>
       <c r="C304" s="4"/>
       <c r="D304" s="5"/>
@@ -4070,7 +4070,7 @@
       <c r="F304" s="6"/>
       <c r="G304" s="6"/>
     </row>
-    <row r="305" spans="2:7" ht="14.4">
+    <row r="305" spans="2:7" ht="15">
       <c r="B305" s="7"/>
       <c r="C305" s="4"/>
       <c r="D305" s="5"/>
@@ -4078,7 +4078,7 @@
       <c r="F305" s="6"/>
       <c r="G305" s="6"/>
     </row>
-    <row r="306" spans="2:7" ht="14.4">
+    <row r="306" spans="2:7" ht="15">
       <c r="B306" s="7"/>
       <c r="C306" s="4"/>
       <c r="D306" s="5"/>
@@ -4086,7 +4086,7 @@
       <c r="F306" s="6"/>
       <c r="G306" s="6"/>
     </row>
-    <row r="307" spans="2:7" ht="14.4">
+    <row r="307" spans="2:7" ht="15">
       <c r="B307" s="7"/>
       <c r="C307" s="4"/>
       <c r="D307" s="5"/>
@@ -4094,7 +4094,7 @@
       <c r="F307" s="6"/>
       <c r="G307" s="6"/>
     </row>
-    <row r="308" spans="2:7" ht="14.4">
+    <row r="308" spans="2:7" ht="15">
       <c r="B308" s="7"/>
       <c r="C308" s="4"/>
       <c r="D308" s="5"/>
@@ -4102,7 +4102,7 @@
       <c r="F308" s="6"/>
       <c r="G308" s="6"/>
     </row>
-    <row r="309" spans="2:7" ht="14.4">
+    <row r="309" spans="2:7" ht="15">
       <c r="B309" s="7"/>
       <c r="C309" s="4"/>
       <c r="D309" s="5"/>
@@ -4110,7 +4110,7 @@
       <c r="F309" s="6"/>
       <c r="G309" s="6"/>
     </row>
-    <row r="310" spans="2:7" ht="14.4">
+    <row r="310" spans="2:7" ht="15">
       <c r="B310" s="7"/>
       <c r="C310" s="4"/>
       <c r="D310" s="5"/>
@@ -4118,7 +4118,7 @@
       <c r="F310" s="6"/>
       <c r="G310" s="6"/>
     </row>
-    <row r="311" spans="2:7" ht="13.2">
+    <row r="311" spans="2:7" ht="12.75">
       <c r="B311" s="7"/>
       <c r="C311" s="7"/>
       <c r="D311" s="5"/>
@@ -4126,7 +4126,7 @@
       <c r="F311" s="6"/>
       <c r="G311" s="6"/>
     </row>
-    <row r="312" spans="2:7" ht="14.4">
+    <row r="312" spans="2:7" ht="15">
       <c r="B312" s="7"/>
       <c r="C312" s="4"/>
       <c r="D312" s="5"/>
@@ -4134,7 +4134,7 @@
       <c r="F312" s="6"/>
       <c r="G312" s="6"/>
     </row>
-    <row r="313" spans="2:7" ht="14.4">
+    <row r="313" spans="2:7" ht="15">
       <c r="B313" s="7"/>
       <c r="C313" s="4"/>
       <c r="D313" s="5"/>
@@ -4142,7 +4142,7 @@
       <c r="F313" s="6"/>
       <c r="G313" s="6"/>
     </row>
-    <row r="314" spans="2:7" ht="14.4">
+    <row r="314" spans="2:7" ht="15">
       <c r="B314" s="7"/>
       <c r="C314" s="4"/>
       <c r="D314" s="5"/>
@@ -4150,7 +4150,7 @@
       <c r="F314" s="6"/>
       <c r="G314" s="6"/>
     </row>
-    <row r="315" spans="2:7" ht="14.4">
+    <row r="315" spans="2:7" ht="15">
       <c r="B315" s="7"/>
       <c r="C315" s="4"/>
       <c r="D315" s="5"/>
@@ -4158,7 +4158,7 @@
       <c r="F315" s="6"/>
       <c r="G315" s="6"/>
     </row>
-    <row r="316" spans="2:7" ht="14.4">
+    <row r="316" spans="2:7" ht="15">
       <c r="B316" s="7"/>
       <c r="C316" s="4"/>
       <c r="D316" s="5"/>
@@ -4166,7 +4166,7 @@
       <c r="F316" s="6"/>
       <c r="G316" s="6"/>
     </row>
-    <row r="317" spans="2:7" ht="14.4">
+    <row r="317" spans="2:7" ht="15">
       <c r="B317" s="7"/>
       <c r="C317" s="4"/>
       <c r="D317" s="5"/>
@@ -4174,7 +4174,7 @@
       <c r="F317" s="6"/>
       <c r="G317" s="6"/>
     </row>
-    <row r="318" spans="2:7" ht="14.4">
+    <row r="318" spans="2:7" ht="15">
       <c r="B318" s="7"/>
       <c r="C318" s="4"/>
       <c r="D318" s="5"/>
@@ -4182,7 +4182,7 @@
       <c r="F318" s="6"/>
       <c r="G318" s="6"/>
     </row>
-    <row r="319" spans="2:7" ht="13.2">
+    <row r="319" spans="2:7" ht="12.75">
       <c r="B319" s="7"/>
       <c r="C319" s="7"/>
       <c r="D319" s="5"/>
@@ -4190,7 +4190,7 @@
       <c r="F319" s="6"/>
       <c r="G319" s="6"/>
     </row>
-    <row r="320" spans="2:7" ht="14.4">
+    <row r="320" spans="2:7" ht="15">
       <c r="B320" s="7"/>
       <c r="C320" s="4"/>
       <c r="D320" s="5"/>
@@ -4198,7 +4198,7 @@
       <c r="F320" s="6"/>
       <c r="G320" s="6"/>
     </row>
-    <row r="321" spans="2:7" ht="14.4">
+    <row r="321" spans="2:7" ht="15">
       <c r="B321" s="7"/>
       <c r="C321" s="4"/>
       <c r="D321" s="5"/>
@@ -4206,7 +4206,7 @@
       <c r="F321" s="6"/>
       <c r="G321" s="6"/>
     </row>
-    <row r="322" spans="2:7" ht="14.4">
+    <row r="322" spans="2:7" ht="15">
       <c r="B322" s="7"/>
       <c r="C322" s="4"/>
       <c r="D322" s="5"/>
@@ -4214,7 +4214,7 @@
       <c r="F322" s="6"/>
       <c r="G322" s="6"/>
     </row>
-    <row r="323" spans="2:7" ht="14.4">
+    <row r="323" spans="2:7" ht="15">
       <c r="B323" s="7"/>
       <c r="C323" s="4"/>
       <c r="D323" s="5"/>
@@ -4222,7 +4222,7 @@
       <c r="F323" s="6"/>
       <c r="G323" s="6"/>
     </row>
-    <row r="324" spans="2:7" ht="14.4">
+    <row r="324" spans="2:7" ht="15">
       <c r="B324" s="7"/>
       <c r="C324" s="4"/>
       <c r="D324" s="5"/>
@@ -4230,7 +4230,7 @@
       <c r="F324" s="6"/>
       <c r="G324" s="6"/>
     </row>
-    <row r="325" spans="2:7" ht="14.4">
+    <row r="325" spans="2:7" ht="15">
       <c r="B325" s="7"/>
       <c r="C325" s="4"/>
       <c r="D325" s="5"/>
@@ -4238,7 +4238,7 @@
       <c r="F325" s="6"/>
       <c r="G325" s="6"/>
     </row>
-    <row r="326" spans="2:7" ht="14.4">
+    <row r="326" spans="2:7" ht="15">
       <c r="B326" s="7"/>
       <c r="C326" s="4"/>
       <c r="D326" s="5"/>
@@ -4246,7 +4246,7 @@
       <c r="F326" s="6"/>
       <c r="G326" s="6"/>
     </row>
-    <row r="327" spans="2:7" ht="13.2">
+    <row r="327" spans="2:7" ht="12.75">
       <c r="B327" s="7"/>
       <c r="C327" s="7"/>
       <c r="D327" s="5"/>
@@ -4254,7 +4254,7 @@
       <c r="F327" s="6"/>
       <c r="G327" s="6"/>
     </row>
-    <row r="328" spans="2:7" ht="14.4">
+    <row r="328" spans="2:7" ht="15">
       <c r="B328" s="7"/>
       <c r="C328" s="4"/>
       <c r="D328" s="5"/>
@@ -4262,7 +4262,7 @@
       <c r="F328" s="6"/>
       <c r="G328" s="6"/>
     </row>
-    <row r="329" spans="2:7" ht="14.4">
+    <row r="329" spans="2:7" ht="15">
       <c r="B329" s="7"/>
       <c r="C329" s="4"/>
       <c r="D329" s="5"/>
@@ -4270,7 +4270,7 @@
       <c r="F329" s="6"/>
       <c r="G329" s="6"/>
     </row>
-    <row r="330" spans="2:7" ht="14.4">
+    <row r="330" spans="2:7" ht="15">
       <c r="B330" s="7"/>
       <c r="C330" s="4"/>
       <c r="D330" s="5"/>
@@ -4278,7 +4278,7 @@
       <c r="F330" s="6"/>
       <c r="G330" s="6"/>
     </row>
-    <row r="331" spans="2:7" ht="14.4">
+    <row r="331" spans="2:7" ht="15">
       <c r="B331" s="7"/>
       <c r="C331" s="4"/>
       <c r="D331" s="5"/>
@@ -4286,7 +4286,7 @@
       <c r="F331" s="6"/>
       <c r="G331" s="6"/>
     </row>
-    <row r="332" spans="2:7" ht="14.4">
+    <row r="332" spans="2:7" ht="15">
       <c r="B332" s="7"/>
       <c r="C332" s="4"/>
       <c r="D332" s="5"/>
@@ -4294,7 +4294,7 @@
       <c r="F332" s="6"/>
       <c r="G332" s="6"/>
     </row>
-    <row r="333" spans="2:7" ht="14.4">
+    <row r="333" spans="2:7" ht="15">
       <c r="B333" s="7"/>
       <c r="C333" s="4"/>
       <c r="D333" s="5"/>
@@ -4302,7 +4302,7 @@
       <c r="F333" s="6"/>
       <c r="G333" s="6"/>
     </row>
-    <row r="334" spans="2:7" ht="14.4">
+    <row r="334" spans="2:7" ht="15">
       <c r="B334" s="7"/>
       <c r="C334" s="4"/>
       <c r="D334" s="5"/>
@@ -4310,7 +4310,7 @@
       <c r="F334" s="6"/>
       <c r="G334" s="6"/>
     </row>
-    <row r="335" spans="2:7" ht="13.2">
+    <row r="335" spans="2:7" ht="12.75">
       <c r="B335" s="7"/>
       <c r="C335" s="7"/>
       <c r="D335" s="5"/>
@@ -4318,7 +4318,7 @@
       <c r="F335" s="6"/>
       <c r="G335" s="6"/>
     </row>
-    <row r="336" spans="2:7" ht="14.4">
+    <row r="336" spans="2:7" ht="15">
       <c r="B336" s="7"/>
       <c r="C336" s="4"/>
       <c r="D336" s="5"/>
@@ -4326,7 +4326,7 @@
       <c r="F336" s="6"/>
       <c r="G336" s="6"/>
     </row>
-    <row r="337" spans="2:7" ht="14.4">
+    <row r="337" spans="2:7" ht="15">
       <c r="B337" s="7"/>
       <c r="C337" s="4"/>
       <c r="D337" s="5"/>
@@ -4334,7 +4334,7 @@
       <c r="F337" s="6"/>
       <c r="G337" s="6"/>
     </row>
-    <row r="338" spans="2:7" ht="14.4">
+    <row r="338" spans="2:7" ht="15">
       <c r="B338" s="7"/>
       <c r="C338" s="4"/>
       <c r="D338" s="5"/>
@@ -4342,7 +4342,7 @@
       <c r="F338" s="6"/>
       <c r="G338" s="6"/>
     </row>
-    <row r="339" spans="2:7" ht="14.4">
+    <row r="339" spans="2:7" ht="15">
       <c r="B339" s="7"/>
       <c r="C339" s="4"/>
       <c r="D339" s="5"/>
@@ -4350,7 +4350,7 @@
       <c r="F339" s="6"/>
       <c r="G339" s="6"/>
     </row>
-    <row r="340" spans="2:7" ht="14.4">
+    <row r="340" spans="2:7" ht="15">
       <c r="B340" s="7"/>
       <c r="C340" s="4"/>
       <c r="D340" s="5"/>
@@ -4358,7 +4358,7 @@
       <c r="F340" s="6"/>
       <c r="G340" s="6"/>
     </row>
-    <row r="341" spans="2:7" ht="14.4">
+    <row r="341" spans="2:7" ht="15">
       <c r="B341" s="7"/>
       <c r="C341" s="4"/>
       <c r="D341" s="5"/>
@@ -4366,7 +4366,7 @@
       <c r="F341" s="6"/>
       <c r="G341" s="6"/>
     </row>
-    <row r="342" spans="2:7" ht="14.4">
+    <row r="342" spans="2:7" ht="15">
       <c r="B342" s="7"/>
       <c r="C342" s="4"/>
       <c r="D342" s="5"/>
@@ -4374,7 +4374,7 @@
       <c r="F342" s="6"/>
       <c r="G342" s="6"/>
     </row>
-    <row r="343" spans="2:7" ht="13.2">
+    <row r="343" spans="2:7" ht="12.75">
       <c r="B343" s="7"/>
       <c r="C343" s="7"/>
       <c r="D343" s="5"/>
@@ -4382,7 +4382,7 @@
       <c r="F343" s="6"/>
       <c r="G343" s="6"/>
     </row>
-    <row r="344" spans="2:7" ht="14.4">
+    <row r="344" spans="2:7" ht="15">
       <c r="B344" s="7"/>
       <c r="C344" s="4"/>
       <c r="D344" s="5"/>
@@ -4390,7 +4390,7 @@
       <c r="F344" s="6"/>
       <c r="G344" s="6"/>
     </row>
-    <row r="345" spans="2:7" ht="14.4">
+    <row r="345" spans="2:7" ht="15">
       <c r="B345" s="7"/>
       <c r="C345" s="4"/>
       <c r="D345" s="5"/>
@@ -4398,7 +4398,7 @@
       <c r="F345" s="6"/>
       <c r="G345" s="6"/>
     </row>
-    <row r="346" spans="2:7" ht="14.4">
+    <row r="346" spans="2:7" ht="15">
       <c r="B346" s="7"/>
       <c r="C346" s="4"/>
       <c r="D346" s="5"/>
@@ -4406,7 +4406,7 @@
       <c r="F346" s="6"/>
       <c r="G346" s="6"/>
     </row>
-    <row r="347" spans="2:7" ht="14.4">
+    <row r="347" spans="2:7" ht="15">
       <c r="B347" s="7"/>
       <c r="C347" s="4"/>
       <c r="D347" s="5"/>
@@ -4414,7 +4414,7 @@
       <c r="F347" s="6"/>
       <c r="G347" s="6"/>
     </row>
-    <row r="348" spans="2:7" ht="14.4">
+    <row r="348" spans="2:7" ht="15">
       <c r="B348" s="7"/>
       <c r="C348" s="4"/>
       <c r="D348" s="5"/>
@@ -4422,7 +4422,7 @@
       <c r="F348" s="6"/>
       <c r="G348" s="6"/>
     </row>
-    <row r="349" spans="2:7" ht="14.4">
+    <row r="349" spans="2:7" ht="15">
       <c r="B349" s="7"/>
       <c r="C349" s="4"/>
       <c r="D349" s="5"/>
@@ -4430,7 +4430,7 @@
       <c r="F349" s="6"/>
       <c r="G349" s="6"/>
     </row>
-    <row r="350" spans="2:7" ht="14.4">
+    <row r="350" spans="2:7" ht="15">
       <c r="B350" s="7"/>
       <c r="C350" s="4"/>
       <c r="D350" s="5"/>
@@ -4438,7 +4438,7 @@
       <c r="F350" s="6"/>
       <c r="G350" s="6"/>
     </row>
-    <row r="351" spans="2:7" ht="13.2">
+    <row r="351" spans="2:7" ht="12.75">
       <c r="B351" s="7"/>
       <c r="C351" s="7"/>
       <c r="D351" s="5"/>
@@ -4446,7 +4446,7 @@
       <c r="F351" s="6"/>
       <c r="G351" s="6"/>
     </row>
-    <row r="352" spans="2:7" ht="14.4">
+    <row r="352" spans="2:7" ht="15">
       <c r="B352" s="7"/>
       <c r="C352" s="4"/>
       <c r="D352" s="5"/>
@@ -4454,7 +4454,7 @@
       <c r="F352" s="6"/>
       <c r="G352" s="6"/>
     </row>
-    <row r="353" spans="2:7" ht="14.4">
+    <row r="353" spans="2:7" ht="15">
       <c r="B353" s="7"/>
       <c r="C353" s="4"/>
       <c r="D353" s="5"/>
@@ -4462,7 +4462,7 @@
       <c r="F353" s="6"/>
       <c r="G353" s="6"/>
     </row>
-    <row r="354" spans="2:7" ht="14.4">
+    <row r="354" spans="2:7" ht="15">
       <c r="B354" s="7"/>
       <c r="C354" s="4"/>
       <c r="D354" s="5"/>
@@ -4470,7 +4470,7 @@
       <c r="F354" s="6"/>
       <c r="G354" s="6"/>
     </row>
-    <row r="355" spans="2:7" ht="13.2">
+    <row r="355" spans="2:7" ht="12.75">
       <c r="B355" s="7"/>
       <c r="C355" s="7"/>
       <c r="D355" s="5"/>
@@ -4478,7 +4478,7 @@
       <c r="F355" s="6"/>
       <c r="G355" s="6"/>
     </row>
-    <row r="356" spans="2:7" ht="14.4">
+    <row r="356" spans="2:7" ht="15">
       <c r="B356" s="7"/>
       <c r="C356" s="4"/>
       <c r="D356" s="5"/>
@@ -4486,7 +4486,7 @@
       <c r="F356" s="6"/>
       <c r="G356" s="6"/>
     </row>
-    <row r="357" spans="2:7" ht="14.4">
+    <row r="357" spans="2:7" ht="15">
       <c r="B357" s="7"/>
       <c r="C357" s="4"/>
       <c r="D357" s="5"/>
@@ -4494,7 +4494,7 @@
       <c r="F357" s="6"/>
       <c r="G357" s="6"/>
     </row>
-    <row r="358" spans="2:7" ht="14.4">
+    <row r="358" spans="2:7" ht="15">
       <c r="B358" s="7"/>
       <c r="C358" s="4"/>
       <c r="D358" s="6"/>
@@ -4502,7 +4502,7 @@
       <c r="F358" s="6"/>
       <c r="G358" s="6"/>
     </row>
-    <row r="359" spans="2:7" ht="13.2">
+    <row r="359" spans="2:7" ht="12.75">
       <c r="B359" s="7"/>
       <c r="C359" s="7"/>
       <c r="D359" s="5"/>
@@ -4510,7 +4510,7 @@
       <c r="F359" s="6"/>
       <c r="G359" s="6"/>
     </row>
-    <row r="360" spans="2:7" ht="13.2">
+    <row r="360" spans="2:7" ht="12.75">
       <c r="B360" s="7"/>
       <c r="C360" s="7"/>
       <c r="D360" s="5"/>
@@ -4518,7 +4518,7 @@
       <c r="F360" s="6"/>
       <c r="G360" s="6"/>
     </row>
-    <row r="361" spans="2:7" ht="13.2">
+    <row r="361" spans="2:7" ht="12.75">
       <c r="B361" s="7"/>
       <c r="C361" s="7"/>
       <c r="D361" s="6"/>
@@ -4526,7 +4526,7 @@
       <c r="F361" s="6"/>
       <c r="G361" s="6"/>
     </row>
-    <row r="362" spans="2:7" ht="13.2">
+    <row r="362" spans="2:7" ht="12.75">
       <c r="B362" s="7"/>
       <c r="C362" s="7"/>
       <c r="D362" s="6"/>
@@ -4534,7 +4534,7 @@
       <c r="F362" s="6"/>
       <c r="G362" s="6"/>
     </row>
-    <row r="363" spans="2:7" ht="13.2">
+    <row r="363" spans="2:7" ht="12.75">
       <c r="B363" s="7"/>
       <c r="C363" s="7"/>
       <c r="D363" s="6"/>
@@ -4542,7 +4542,7 @@
       <c r="F363" s="6"/>
       <c r="G363" s="6"/>
     </row>
-    <row r="364" spans="2:7" ht="13.2">
+    <row r="364" spans="2:7" ht="12.75">
       <c r="B364" s="7"/>
       <c r="C364" s="7"/>
       <c r="D364" s="6"/>
@@ -4550,7 +4550,7 @@
       <c r="F364" s="6"/>
       <c r="G364" s="6"/>
     </row>
-    <row r="365" spans="2:7" ht="13.2">
+    <row r="365" spans="2:7" ht="12.75">
       <c r="B365" s="7"/>
       <c r="C365" s="7"/>
       <c r="D365" s="6"/>
@@ -4558,7 +4558,7 @@
       <c r="F365" s="6"/>
       <c r="G365" s="6"/>
     </row>
-    <row r="366" spans="2:7" ht="13.2">
+    <row r="366" spans="2:7" ht="12.75">
       <c r="B366" s="7"/>
       <c r="C366" s="7"/>
       <c r="D366" s="6"/>
@@ -4566,7 +4566,7 @@
       <c r="F366" s="6"/>
       <c r="G366" s="6"/>
     </row>
-    <row r="367" spans="2:7" ht="13.2">
+    <row r="367" spans="2:7" ht="12.75">
       <c r="B367" s="7"/>
       <c r="C367" s="7"/>
       <c r="D367" s="6"/>
@@ -4574,7 +4574,7 @@
       <c r="F367" s="6"/>
       <c r="G367" s="6"/>
     </row>
-    <row r="368" spans="2:7" ht="13.2">
+    <row r="368" spans="2:7" ht="12.75">
       <c r="B368" s="7"/>
       <c r="C368" s="7"/>
       <c r="D368" s="6"/>
@@ -4582,7 +4582,7 @@
       <c r="F368" s="6"/>
       <c r="G368" s="6"/>
     </row>
-    <row r="369" spans="2:7" ht="13.2">
+    <row r="369" spans="2:7" ht="12.75">
       <c r="B369" s="7"/>
       <c r="C369" s="7"/>
       <c r="D369" s="6"/>
@@ -4590,7 +4590,7 @@
       <c r="F369" s="6"/>
       <c r="G369" s="6"/>
     </row>
-    <row r="370" spans="2:7" ht="13.2">
+    <row r="370" spans="2:7" ht="12.75">
       <c r="B370" s="7"/>
       <c r="C370" s="7"/>
       <c r="D370" s="6"/>
@@ -4598,7 +4598,7 @@
       <c r="F370" s="6"/>
       <c r="G370" s="6"/>
     </row>
-    <row r="371" spans="2:7" ht="13.2">
+    <row r="371" spans="2:7" ht="12.75">
       <c r="B371" s="7"/>
       <c r="C371" s="7"/>
       <c r="D371" s="6"/>
@@ -4606,7 +4606,7 @@
       <c r="F371" s="6"/>
       <c r="G371" s="6"/>
     </row>
-    <row r="372" spans="2:7" ht="13.2">
+    <row r="372" spans="2:7" ht="12.75">
       <c r="B372" s="7"/>
       <c r="C372" s="7"/>
       <c r="D372" s="6"/>
@@ -4614,7 +4614,7 @@
       <c r="F372" s="6"/>
       <c r="G372" s="6"/>
     </row>
-    <row r="373" spans="2:7" ht="13.2">
+    <row r="373" spans="2:7" ht="12.75">
       <c r="B373" s="7"/>
       <c r="C373" s="7"/>
       <c r="D373" s="6"/>
@@ -4622,7 +4622,7 @@
       <c r="F373" s="6"/>
       <c r="G373" s="6"/>
     </row>
-    <row r="374" spans="2:7" ht="13.2">
+    <row r="374" spans="2:7" ht="12.75">
       <c r="B374" s="7"/>
       <c r="C374" s="7"/>
       <c r="D374" s="6"/>
@@ -4630,7 +4630,7 @@
       <c r="F374" s="6"/>
       <c r="G374" s="6"/>
     </row>
-    <row r="375" spans="2:7" ht="13.2">
+    <row r="375" spans="2:7" ht="12.75">
       <c r="B375" s="7"/>
       <c r="C375" s="7"/>
       <c r="D375" s="6"/>
@@ -4638,7 +4638,7 @@
       <c r="F375" s="6"/>
       <c r="G375" s="6"/>
     </row>
-    <row r="376" spans="2:7" ht="13.2">
+    <row r="376" spans="2:7" ht="12.75">
       <c r="B376" s="7"/>
       <c r="C376" s="7"/>
       <c r="D376" s="6"/>
@@ -4646,2815 +4646,2815 @@
       <c r="F376" s="6"/>
       <c r="G376" s="6"/>
     </row>
-    <row r="377" spans="2:7" ht="13.2">
+    <row r="377" spans="2:7" ht="12.75">
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
     </row>
-    <row r="378" spans="2:7" ht="13.2">
+    <row r="378" spans="2:7" ht="12.75">
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
     </row>
-    <row r="379" spans="2:7" ht="13.2">
+    <row r="379" spans="2:7" ht="12.75">
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
     </row>
-    <row r="380" spans="2:7" ht="13.2">
+    <row r="380" spans="2:7" ht="12.75">
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
     </row>
-    <row r="381" spans="2:7" ht="13.2">
+    <row r="381" spans="2:7" ht="12.75">
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
     </row>
-    <row r="382" spans="2:7" ht="13.2">
+    <row r="382" spans="2:7" ht="12.75">
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
     </row>
-    <row r="383" spans="2:7" ht="13.2">
+    <row r="383" spans="2:7" ht="12.75">
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
     </row>
-    <row r="384" spans="2:7" ht="13.2">
+    <row r="384" spans="2:7" ht="12.75">
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
     </row>
-    <row r="385" spans="2:3" ht="13.2">
+    <row r="385" spans="2:3" ht="12.75">
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
     </row>
-    <row r="386" spans="2:3" ht="13.2">
+    <row r="386" spans="2:3" ht="12.75">
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
     </row>
-    <row r="387" spans="2:3" ht="13.2">
+    <row r="387" spans="2:3" ht="12.75">
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
     </row>
-    <row r="388" spans="2:3" ht="13.2">
+    <row r="388" spans="2:3" ht="12.75">
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
     </row>
-    <row r="389" spans="2:3" ht="13.2">
+    <row r="389" spans="2:3" ht="12.75">
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
     </row>
-    <row r="390" spans="2:3" ht="13.2">
+    <row r="390" spans="2:3" ht="12.75">
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
     </row>
-    <row r="391" spans="2:3" ht="13.2">
+    <row r="391" spans="2:3" ht="12.75">
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
     </row>
-    <row r="392" spans="2:3" ht="13.2">
+    <row r="392" spans="2:3" ht="12.75">
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
     </row>
-    <row r="393" spans="2:3" ht="13.2">
+    <row r="393" spans="2:3" ht="12.75">
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
     </row>
-    <row r="394" spans="2:3" ht="13.2">
+    <row r="394" spans="2:3" ht="12.75">
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
     </row>
-    <row r="395" spans="2:3" ht="13.2">
+    <row r="395" spans="2:3" ht="12.75">
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
     </row>
-    <row r="396" spans="2:3" ht="13.2">
+    <row r="396" spans="2:3" ht="12.75">
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
     </row>
-    <row r="397" spans="2:3" ht="13.2">
+    <row r="397" spans="2:3" ht="12.75">
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
     </row>
-    <row r="398" spans="2:3" ht="13.2">
+    <row r="398" spans="2:3" ht="12.75">
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
     </row>
-    <row r="399" spans="2:3" ht="13.2">
+    <row r="399" spans="2:3" ht="12.75">
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
     </row>
-    <row r="400" spans="2:3" ht="13.2">
+    <row r="400" spans="2:3" ht="12.75">
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
     </row>
-    <row r="401" spans="2:3" ht="13.2">
+    <row r="401" spans="2:3" ht="12.75">
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
     </row>
-    <row r="402" spans="2:3" ht="13.2">
+    <row r="402" spans="2:3" ht="12.75">
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
     </row>
-    <row r="403" spans="2:3" ht="13.2">
+    <row r="403" spans="2:3" ht="12.75">
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
     </row>
-    <row r="404" spans="2:3" ht="13.2">
+    <row r="404" spans="2:3" ht="12.75">
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
     </row>
-    <row r="405" spans="2:3" ht="13.2">
+    <row r="405" spans="2:3" ht="12.75">
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
     </row>
-    <row r="406" spans="2:3" ht="13.2">
+    <row r="406" spans="2:3" ht="12.75">
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
     </row>
-    <row r="407" spans="2:3" ht="13.2">
+    <row r="407" spans="2:3" ht="12.75">
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
     </row>
-    <row r="408" spans="2:3" ht="13.2">
+    <row r="408" spans="2:3" ht="12.75">
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
     </row>
-    <row r="409" spans="2:3" ht="13.2">
+    <row r="409" spans="2:3" ht="12.75">
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
     </row>
-    <row r="410" spans="2:3" ht="13.2">
+    <row r="410" spans="2:3" ht="12.75">
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
     </row>
-    <row r="411" spans="2:3" ht="13.2">
+    <row r="411" spans="2:3" ht="12.75">
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
     </row>
-    <row r="412" spans="2:3" ht="13.2">
+    <row r="412" spans="2:3" ht="12.75">
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
     </row>
-    <row r="413" spans="2:3" ht="13.2">
+    <row r="413" spans="2:3" ht="12.75">
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
     </row>
-    <row r="414" spans="2:3" ht="13.2">
+    <row r="414" spans="2:3" ht="12.75">
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
     </row>
-    <row r="415" spans="2:3" ht="13.2">
+    <row r="415" spans="2:3" ht="12.75">
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
     </row>
-    <row r="416" spans="2:3" ht="13.2">
+    <row r="416" spans="2:3" ht="12.75">
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
     </row>
-    <row r="417" spans="2:3" ht="13.2">
+    <row r="417" spans="2:3" ht="12.75">
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
     </row>
-    <row r="418" spans="2:3" ht="13.2">
+    <row r="418" spans="2:3" ht="12.75">
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
     </row>
-    <row r="419" spans="2:3" ht="13.2">
+    <row r="419" spans="2:3" ht="12.75">
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
     </row>
-    <row r="420" spans="2:3" ht="13.2">
+    <row r="420" spans="2:3" ht="12.75">
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
     </row>
-    <row r="421" spans="2:3" ht="13.2">
+    <row r="421" spans="2:3" ht="12.75">
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
     </row>
-    <row r="422" spans="2:3" ht="13.2">
+    <row r="422" spans="2:3" ht="12.75">
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
     </row>
-    <row r="423" spans="2:3" ht="13.2">
+    <row r="423" spans="2:3" ht="12.75">
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
     </row>
-    <row r="424" spans="2:3" ht="13.2">
+    <row r="424" spans="2:3" ht="12.75">
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
     </row>
-    <row r="425" spans="2:3" ht="13.2">
+    <row r="425" spans="2:3" ht="12.75">
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
     </row>
-    <row r="426" spans="2:3" ht="13.2">
+    <row r="426" spans="2:3" ht="12.75">
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
     </row>
-    <row r="427" spans="2:3" ht="13.2">
+    <row r="427" spans="2:3" ht="12.75">
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
     </row>
-    <row r="428" spans="2:3" ht="13.2">
+    <row r="428" spans="2:3" ht="12.75">
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
     </row>
-    <row r="429" spans="2:3" ht="13.2">
+    <row r="429" spans="2:3" ht="12.75">
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
     </row>
-    <row r="430" spans="2:3" ht="13.2">
+    <row r="430" spans="2:3" ht="12.75">
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
     </row>
-    <row r="431" spans="2:3" ht="13.2">
+    <row r="431" spans="2:3" ht="12.75">
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
     </row>
-    <row r="432" spans="2:3" ht="13.2">
+    <row r="432" spans="2:3" ht="12.75">
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
     </row>
-    <row r="433" spans="2:3" ht="13.2">
+    <row r="433" spans="2:3" ht="12.75">
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
     </row>
-    <row r="434" spans="2:3" ht="13.2">
+    <row r="434" spans="2:3" ht="12.75">
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
     </row>
-    <row r="435" spans="2:3" ht="13.2">
+    <row r="435" spans="2:3" ht="12.75">
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
     </row>
-    <row r="436" spans="2:3" ht="13.2">
+    <row r="436" spans="2:3" ht="12.75">
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
     </row>
-    <row r="437" spans="2:3" ht="13.2">
+    <row r="437" spans="2:3" ht="12.75">
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
     </row>
-    <row r="438" spans="2:3" ht="13.2">
+    <row r="438" spans="2:3" ht="12.75">
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
     </row>
-    <row r="439" spans="2:3" ht="13.2">
+    <row r="439" spans="2:3" ht="12.75">
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
     </row>
-    <row r="440" spans="2:3" ht="13.2">
+    <row r="440" spans="2:3" ht="12.75">
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
     </row>
-    <row r="441" spans="2:3" ht="13.2">
+    <row r="441" spans="2:3" ht="12.75">
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
     </row>
-    <row r="442" spans="2:3" ht="13.2">
+    <row r="442" spans="2:3" ht="12.75">
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
     </row>
-    <row r="443" spans="2:3" ht="13.2">
+    <row r="443" spans="2:3" ht="12.75">
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
     </row>
-    <row r="444" spans="2:3" ht="13.2">
+    <row r="444" spans="2:3" ht="12.75">
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
     </row>
-    <row r="445" spans="2:3" ht="13.2">
+    <row r="445" spans="2:3" ht="12.75">
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
     </row>
-    <row r="446" spans="2:3" ht="13.2">
+    <row r="446" spans="2:3" ht="12.75">
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
     </row>
-    <row r="447" spans="2:3" ht="13.2">
+    <row r="447" spans="2:3" ht="12.75">
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
     </row>
-    <row r="448" spans="2:3" ht="13.2">
+    <row r="448" spans="2:3" ht="12.75">
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
     </row>
-    <row r="449" spans="2:3" ht="13.2">
+    <row r="449" spans="2:3" ht="12.75">
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
     </row>
-    <row r="450" spans="2:3" ht="13.2">
+    <row r="450" spans="2:3" ht="12.75">
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
     </row>
-    <row r="451" spans="2:3" ht="13.2">
+    <row r="451" spans="2:3" ht="12.75">
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
     </row>
-    <row r="452" spans="2:3" ht="13.2">
+    <row r="452" spans="2:3" ht="12.75">
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
     </row>
-    <row r="453" spans="2:3" ht="13.2">
+    <row r="453" spans="2:3" ht="12.75">
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
     </row>
-    <row r="454" spans="2:3" ht="13.2">
+    <row r="454" spans="2:3" ht="12.75">
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
     </row>
-    <row r="455" spans="2:3" ht="13.2">
+    <row r="455" spans="2:3" ht="12.75">
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
     </row>
-    <row r="456" spans="2:3" ht="13.2">
+    <row r="456" spans="2:3" ht="12.75">
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
     </row>
-    <row r="457" spans="2:3" ht="13.2">
+    <row r="457" spans="2:3" ht="12.75">
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
     </row>
-    <row r="458" spans="2:3" ht="13.2">
+    <row r="458" spans="2:3" ht="12.75">
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
     </row>
-    <row r="459" spans="2:3" ht="13.2">
+    <row r="459" spans="2:3" ht="12.75">
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
     </row>
-    <row r="460" spans="2:3" ht="13.2">
+    <row r="460" spans="2:3" ht="12.75">
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
     </row>
-    <row r="461" spans="2:3" ht="13.2">
+    <row r="461" spans="2:3" ht="12.75">
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
     </row>
-    <row r="462" spans="2:3" ht="13.2">
+    <row r="462" spans="2:3" ht="12.75">
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
     </row>
-    <row r="463" spans="2:3" ht="13.2">
+    <row r="463" spans="2:3" ht="12.75">
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
     </row>
-    <row r="464" spans="2:3" ht="13.2">
+    <row r="464" spans="2:3" ht="12.75">
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
     </row>
-    <row r="465" spans="2:3" ht="13.2">
+    <row r="465" spans="2:3" ht="12.75">
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
     </row>
-    <row r="466" spans="2:3" ht="13.2">
+    <row r="466" spans="2:3" ht="12.75">
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
     </row>
-    <row r="467" spans="2:3" ht="13.2">
+    <row r="467" spans="2:3" ht="12.75">
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
     </row>
-    <row r="468" spans="2:3" ht="13.2">
+    <row r="468" spans="2:3" ht="12.75">
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
     </row>
-    <row r="469" spans="2:3" ht="13.2">
+    <row r="469" spans="2:3" ht="12.75">
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
     </row>
-    <row r="470" spans="2:3" ht="13.2">
+    <row r="470" spans="2:3" ht="12.75">
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
     </row>
-    <row r="471" spans="2:3" ht="13.2">
+    <row r="471" spans="2:3" ht="12.75">
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
     </row>
-    <row r="472" spans="2:3" ht="13.2">
+    <row r="472" spans="2:3" ht="12.75">
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
     </row>
-    <row r="473" spans="2:3" ht="13.2">
+    <row r="473" spans="2:3" ht="12.75">
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
     </row>
-    <row r="474" spans="2:3" ht="13.2">
+    <row r="474" spans="2:3" ht="12.75">
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
     </row>
-    <row r="475" spans="2:3" ht="13.2">
+    <row r="475" spans="2:3" ht="12.75">
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
     </row>
-    <row r="476" spans="2:3" ht="13.2">
+    <row r="476" spans="2:3" ht="12.75">
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
     </row>
-    <row r="477" spans="2:3" ht="13.2">
+    <row r="477" spans="2:3" ht="12.75">
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
     </row>
-    <row r="478" spans="2:3" ht="13.2">
+    <row r="478" spans="2:3" ht="12.75">
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
     </row>
-    <row r="479" spans="2:3" ht="13.2">
+    <row r="479" spans="2:3" ht="12.75">
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
     </row>
-    <row r="480" spans="2:3" ht="13.2">
+    <row r="480" spans="2:3" ht="12.75">
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
     </row>
-    <row r="481" spans="2:3" ht="13.2">
+    <row r="481" spans="2:3" ht="12.75">
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
     </row>
-    <row r="482" spans="2:3" ht="13.2">
+    <row r="482" spans="2:3" ht="12.75">
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
     </row>
-    <row r="483" spans="2:3" ht="13.2">
+    <row r="483" spans="2:3" ht="12.75">
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
     </row>
-    <row r="484" spans="2:3" ht="13.2">
+    <row r="484" spans="2:3" ht="12.75">
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
     </row>
-    <row r="485" spans="2:3" ht="13.2">
+    <row r="485" spans="2:3" ht="12.75">
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
     </row>
-    <row r="486" spans="2:3" ht="13.2">
+    <row r="486" spans="2:3" ht="12.75">
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
     </row>
-    <row r="487" spans="2:3" ht="13.2">
+    <row r="487" spans="2:3" ht="12.75">
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
     </row>
-    <row r="488" spans="2:3" ht="13.2">
+    <row r="488" spans="2:3" ht="12.75">
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
     </row>
-    <row r="489" spans="2:3" ht="13.2">
+    <row r="489" spans="2:3" ht="12.75">
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
     </row>
-    <row r="490" spans="2:3" ht="13.2">
+    <row r="490" spans="2:3" ht="12.75">
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
     </row>
-    <row r="491" spans="2:3" ht="13.2">
+    <row r="491" spans="2:3" ht="12.75">
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
     </row>
-    <row r="492" spans="2:3" ht="13.2">
+    <row r="492" spans="2:3" ht="12.75">
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
     </row>
-    <row r="493" spans="2:3" ht="13.2">
+    <row r="493" spans="2:3" ht="12.75">
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
     </row>
-    <row r="494" spans="2:3" ht="13.2">
+    <row r="494" spans="2:3" ht="12.75">
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
     </row>
-    <row r="495" spans="2:3" ht="13.2">
+    <row r="495" spans="2:3" ht="12.75">
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
     </row>
-    <row r="496" spans="2:3" ht="13.2">
+    <row r="496" spans="2:3" ht="12.75">
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
     </row>
-    <row r="497" spans="2:3" ht="13.2">
+    <row r="497" spans="2:3" ht="12.75">
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
     </row>
-    <row r="498" spans="2:3" ht="13.2">
+    <row r="498" spans="2:3" ht="12.75">
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
     </row>
-    <row r="499" spans="2:3" ht="13.2">
+    <row r="499" spans="2:3" ht="12.75">
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
     </row>
-    <row r="500" spans="2:3" ht="13.2">
+    <row r="500" spans="2:3" ht="12.75">
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
     </row>
-    <row r="501" spans="2:3" ht="13.2">
+    <row r="501" spans="2:3" ht="12.75">
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
     </row>
-    <row r="502" spans="2:3" ht="13.2">
+    <row r="502" spans="2:3" ht="12.75">
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
     </row>
-    <row r="503" spans="2:3" ht="13.2">
+    <row r="503" spans="2:3" ht="12.75">
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
     </row>
-    <row r="504" spans="2:3" ht="13.2">
+    <row r="504" spans="2:3" ht="12.75">
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
     </row>
-    <row r="505" spans="2:3" ht="13.2">
+    <row r="505" spans="2:3" ht="12.75">
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
     </row>
-    <row r="506" spans="2:3" ht="13.2">
+    <row r="506" spans="2:3" ht="12.75">
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
     </row>
-    <row r="507" spans="2:3" ht="13.2">
+    <row r="507" spans="2:3" ht="12.75">
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
     </row>
-    <row r="508" spans="2:3" ht="13.2">
+    <row r="508" spans="2:3" ht="12.75">
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
     </row>
-    <row r="509" spans="2:3" ht="13.2">
+    <row r="509" spans="2:3" ht="12.75">
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
     </row>
-    <row r="510" spans="2:3" ht="13.2">
+    <row r="510" spans="2:3" ht="12.75">
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
     </row>
-    <row r="511" spans="2:3" ht="13.2">
+    <row r="511" spans="2:3" ht="12.75">
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
     </row>
-    <row r="512" spans="2:3" ht="13.2">
+    <row r="512" spans="2:3" ht="12.75">
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
     </row>
-    <row r="513" spans="2:3" ht="13.2">
+    <row r="513" spans="2:3" ht="12.75">
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
     </row>
-    <row r="514" spans="2:3" ht="13.2">
+    <row r="514" spans="2:3" ht="12.75">
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
     </row>
-    <row r="515" spans="2:3" ht="13.2">
+    <row r="515" spans="2:3" ht="12.75">
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
     </row>
-    <row r="516" spans="2:3" ht="13.2">
+    <row r="516" spans="2:3" ht="12.75">
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
     </row>
-    <row r="517" spans="2:3" ht="13.2">
+    <row r="517" spans="2:3" ht="12.75">
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
     </row>
-    <row r="518" spans="2:3" ht="13.2">
+    <row r="518" spans="2:3" ht="12.75">
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
     </row>
-    <row r="519" spans="2:3" ht="13.2">
+    <row r="519" spans="2:3" ht="12.75">
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
     </row>
-    <row r="520" spans="2:3" ht="13.2">
+    <row r="520" spans="2:3" ht="12.75">
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
     </row>
-    <row r="521" spans="2:3" ht="13.2">
+    <row r="521" spans="2:3" ht="12.75">
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
     </row>
-    <row r="522" spans="2:3" ht="13.2">
+    <row r="522" spans="2:3" ht="12.75">
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
     </row>
-    <row r="523" spans="2:3" ht="13.2">
+    <row r="523" spans="2:3" ht="12.75">
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
     </row>
-    <row r="524" spans="2:3" ht="13.2">
+    <row r="524" spans="2:3" ht="12.75">
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
     </row>
-    <row r="525" spans="2:3" ht="13.2">
+    <row r="525" spans="2:3" ht="12.75">
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
     </row>
-    <row r="526" spans="2:3" ht="13.2">
+    <row r="526" spans="2:3" ht="12.75">
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
     </row>
-    <row r="527" spans="2:3" ht="13.2">
+    <row r="527" spans="2:3" ht="12.75">
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
     </row>
-    <row r="528" spans="2:3" ht="13.2">
+    <row r="528" spans="2:3" ht="12.75">
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
     </row>
-    <row r="529" spans="2:3" ht="13.2">
+    <row r="529" spans="2:3" ht="12.75">
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
     </row>
-    <row r="530" spans="2:3" ht="13.2">
+    <row r="530" spans="2:3" ht="12.75">
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
     </row>
-    <row r="531" spans="2:3" ht="13.2">
+    <row r="531" spans="2:3" ht="12.75">
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
     </row>
-    <row r="532" spans="2:3" ht="13.2">
+    <row r="532" spans="2:3" ht="12.75">
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
     </row>
-    <row r="533" spans="2:3" ht="13.2">
+    <row r="533" spans="2:3" ht="12.75">
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
     </row>
-    <row r="534" spans="2:3" ht="13.2">
+    <row r="534" spans="2:3" ht="12.75">
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
     </row>
-    <row r="535" spans="2:3" ht="13.2">
+    <row r="535" spans="2:3" ht="12.75">
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
     </row>
-    <row r="536" spans="2:3" ht="13.2">
+    <row r="536" spans="2:3" ht="12.75">
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
     </row>
-    <row r="537" spans="2:3" ht="13.2">
+    <row r="537" spans="2:3" ht="12.75">
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
     </row>
-    <row r="538" spans="2:3" ht="13.2">
+    <row r="538" spans="2:3" ht="12.75">
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
     </row>
-    <row r="539" spans="2:3" ht="13.2">
+    <row r="539" spans="2:3" ht="12.75">
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
     </row>
-    <row r="540" spans="2:3" ht="13.2">
+    <row r="540" spans="2:3" ht="12.75">
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
     </row>
-    <row r="541" spans="2:3" ht="13.2">
+    <row r="541" spans="2:3" ht="12.75">
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
     </row>
-    <row r="542" spans="2:3" ht="13.2">
+    <row r="542" spans="2:3" ht="12.75">
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
     </row>
-    <row r="543" spans="2:3" ht="13.2">
+    <row r="543" spans="2:3" ht="12.75">
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
     </row>
-    <row r="544" spans="2:3" ht="13.2">
+    <row r="544" spans="2:3" ht="12.75">
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
     </row>
-    <row r="545" spans="2:3" ht="13.2">
+    <row r="545" spans="2:3" ht="12.75">
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
     </row>
-    <row r="546" spans="2:3" ht="13.2">
+    <row r="546" spans="2:3" ht="12.75">
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
     </row>
-    <row r="547" spans="2:3" ht="13.2">
+    <row r="547" spans="2:3" ht="12.75">
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
     </row>
-    <row r="548" spans="2:3" ht="13.2">
+    <row r="548" spans="2:3" ht="12.75">
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
     </row>
-    <row r="549" spans="2:3" ht="13.2">
+    <row r="549" spans="2:3" ht="12.75">
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
     </row>
-    <row r="550" spans="2:3" ht="13.2">
+    <row r="550" spans="2:3" ht="12.75">
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
     </row>
-    <row r="551" spans="2:3" ht="13.2">
+    <row r="551" spans="2:3" ht="12.75">
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
     </row>
-    <row r="552" spans="2:3" ht="13.2">
+    <row r="552" spans="2:3" ht="12.75">
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
     </row>
-    <row r="553" spans="2:3" ht="13.2">
+    <row r="553" spans="2:3" ht="12.75">
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
     </row>
-    <row r="554" spans="2:3" ht="13.2">
+    <row r="554" spans="2:3" ht="12.75">
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
     </row>
-    <row r="555" spans="2:3" ht="13.2">
+    <row r="555" spans="2:3" ht="12.75">
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
     </row>
-    <row r="556" spans="2:3" ht="13.2">
+    <row r="556" spans="2:3" ht="12.75">
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
     </row>
-    <row r="557" spans="2:3" ht="13.2">
+    <row r="557" spans="2:3" ht="12.75">
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
     </row>
-    <row r="558" spans="2:3" ht="13.2">
+    <row r="558" spans="2:3" ht="12.75">
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
     </row>
-    <row r="559" spans="2:3" ht="13.2">
+    <row r="559" spans="2:3" ht="12.75">
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
     </row>
-    <row r="560" spans="2:3" ht="13.2">
+    <row r="560" spans="2:3" ht="12.75">
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
     </row>
-    <row r="561" spans="2:3" ht="13.2">
+    <row r="561" spans="2:3" ht="12.75">
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
     </row>
-    <row r="562" spans="2:3" ht="13.2">
+    <row r="562" spans="2:3" ht="12.75">
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
     </row>
-    <row r="563" spans="2:3" ht="13.2">
+    <row r="563" spans="2:3" ht="12.75">
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
     </row>
-    <row r="564" spans="2:3" ht="13.2">
+    <row r="564" spans="2:3" ht="12.75">
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
     </row>
-    <row r="565" spans="2:3" ht="13.2">
+    <row r="565" spans="2:3" ht="12.75">
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
     </row>
-    <row r="566" spans="2:3" ht="13.2">
+    <row r="566" spans="2:3" ht="12.75">
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
     </row>
-    <row r="567" spans="2:3" ht="13.2">
+    <row r="567" spans="2:3" ht="12.75">
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
     </row>
-    <row r="568" spans="2:3" ht="13.2">
+    <row r="568" spans="2:3" ht="12.75">
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
     </row>
-    <row r="569" spans="2:3" ht="13.2">
+    <row r="569" spans="2:3" ht="12.75">
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
     </row>
-    <row r="570" spans="2:3" ht="13.2">
+    <row r="570" spans="2:3" ht="12.75">
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
     </row>
-    <row r="571" spans="2:3" ht="13.2">
+    <row r="571" spans="2:3" ht="12.75">
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
     </row>
-    <row r="572" spans="2:3" ht="13.2">
+    <row r="572" spans="2:3" ht="12.75">
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
     </row>
-    <row r="573" spans="2:3" ht="13.2">
+    <row r="573" spans="2:3" ht="12.75">
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
     </row>
-    <row r="574" spans="2:3" ht="13.2">
+    <row r="574" spans="2:3" ht="12.75">
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
     </row>
-    <row r="575" spans="2:3" ht="13.2">
+    <row r="575" spans="2:3" ht="12.75">
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
     </row>
-    <row r="576" spans="2:3" ht="13.2">
+    <row r="576" spans="2:3" ht="12.75">
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
     </row>
-    <row r="577" spans="2:3" ht="13.2">
+    <row r="577" spans="2:3" ht="12.75">
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
     </row>
-    <row r="578" spans="2:3" ht="13.2">
+    <row r="578" spans="2:3" ht="12.75">
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
     </row>
-    <row r="579" spans="2:3" ht="13.2">
+    <row r="579" spans="2:3" ht="12.75">
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
     </row>
-    <row r="580" spans="2:3" ht="13.2">
+    <row r="580" spans="2:3" ht="12.75">
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
     </row>
-    <row r="581" spans="2:3" ht="13.2">
+    <row r="581" spans="2:3" ht="12.75">
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
     </row>
-    <row r="582" spans="2:3" ht="13.2">
+    <row r="582" spans="2:3" ht="12.75">
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
     </row>
-    <row r="583" spans="2:3" ht="13.2">
+    <row r="583" spans="2:3" ht="12.75">
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
     </row>
-    <row r="584" spans="2:3" ht="13.2">
+    <row r="584" spans="2:3" ht="12.75">
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
     </row>
-    <row r="585" spans="2:3" ht="13.2">
+    <row r="585" spans="2:3" ht="12.75">
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
     </row>
-    <row r="586" spans="2:3" ht="13.2">
+    <row r="586" spans="2:3" ht="12.75">
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
     </row>
-    <row r="587" spans="2:3" ht="13.2">
+    <row r="587" spans="2:3" ht="12.75">
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
     </row>
-    <row r="588" spans="2:3" ht="13.2">
+    <row r="588" spans="2:3" ht="12.75">
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
     </row>
-    <row r="589" spans="2:3" ht="13.2">
+    <row r="589" spans="2:3" ht="12.75">
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
     </row>
-    <row r="590" spans="2:3" ht="13.2">
+    <row r="590" spans="2:3" ht="12.75">
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
     </row>
-    <row r="591" spans="2:3" ht="13.2">
+    <row r="591" spans="2:3" ht="12.75">
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
     </row>
-    <row r="592" spans="2:3" ht="13.2">
+    <row r="592" spans="2:3" ht="12.75">
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
     </row>
-    <row r="593" spans="2:3" ht="13.2">
+    <row r="593" spans="2:3" ht="12.75">
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
     </row>
-    <row r="594" spans="2:3" ht="13.2">
+    <row r="594" spans="2:3" ht="12.75">
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
     </row>
-    <row r="595" spans="2:3" ht="13.2">
+    <row r="595" spans="2:3" ht="12.75">
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
     </row>
-    <row r="596" spans="2:3" ht="13.2">
+    <row r="596" spans="2:3" ht="12.75">
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
     </row>
-    <row r="597" spans="2:3" ht="13.2">
+    <row r="597" spans="2:3" ht="12.75">
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
     </row>
-    <row r="598" spans="2:3" ht="13.2">
+    <row r="598" spans="2:3" ht="12.75">
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
     </row>
-    <row r="599" spans="2:3" ht="13.2">
+    <row r="599" spans="2:3" ht="12.75">
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
     </row>
-    <row r="600" spans="2:3" ht="13.2">
+    <row r="600" spans="2:3" ht="12.75">
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
     </row>
-    <row r="601" spans="2:3" ht="13.2">
+    <row r="601" spans="2:3" ht="12.75">
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
     </row>
-    <row r="602" spans="2:3" ht="13.2">
+    <row r="602" spans="2:3" ht="12.75">
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
     </row>
-    <row r="603" spans="2:3" ht="13.2">
+    <row r="603" spans="2:3" ht="12.75">
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
     </row>
-    <row r="604" spans="2:3" ht="13.2">
+    <row r="604" spans="2:3" ht="12.75">
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
     </row>
-    <row r="605" spans="2:3" ht="13.2">
+    <row r="605" spans="2:3" ht="12.75">
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
     </row>
-    <row r="606" spans="2:3" ht="13.2">
+    <row r="606" spans="2:3" ht="12.75">
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
     </row>
-    <row r="607" spans="2:3" ht="13.2">
+    <row r="607" spans="2:3" ht="12.75">
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
     </row>
-    <row r="608" spans="2:3" ht="13.2">
+    <row r="608" spans="2:3" ht="12.75">
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
     </row>
-    <row r="609" spans="2:3" ht="13.2">
+    <row r="609" spans="2:3" ht="12.75">
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
     </row>
-    <row r="610" spans="2:3" ht="13.2">
+    <row r="610" spans="2:3" ht="12.75">
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
     </row>
-    <row r="611" spans="2:3" ht="13.2">
+    <row r="611" spans="2:3" ht="12.75">
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
     </row>
-    <row r="612" spans="2:3" ht="13.2">
+    <row r="612" spans="2:3" ht="12.75">
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
     </row>
-    <row r="613" spans="2:3" ht="13.2">
+    <row r="613" spans="2:3" ht="12.75">
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
     </row>
-    <row r="614" spans="2:3" ht="13.2">
+    <row r="614" spans="2:3" ht="12.75">
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
     </row>
-    <row r="615" spans="2:3" ht="13.2">
+    <row r="615" spans="2:3" ht="12.75">
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
     </row>
-    <row r="616" spans="2:3" ht="13.2">
+    <row r="616" spans="2:3" ht="12.75">
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
     </row>
-    <row r="617" spans="2:3" ht="13.2">
+    <row r="617" spans="2:3" ht="12.75">
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
     </row>
-    <row r="618" spans="2:3" ht="13.2">
+    <row r="618" spans="2:3" ht="12.75">
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
     </row>
-    <row r="619" spans="2:3" ht="13.2">
+    <row r="619" spans="2:3" ht="12.75">
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
     </row>
-    <row r="620" spans="2:3" ht="13.2">
+    <row r="620" spans="2:3" ht="12.75">
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
     </row>
-    <row r="621" spans="2:3" ht="13.2">
+    <row r="621" spans="2:3" ht="12.75">
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
     </row>
-    <row r="622" spans="2:3" ht="13.2">
+    <row r="622" spans="2:3" ht="12.75">
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
     </row>
-    <row r="623" spans="2:3" ht="13.2">
+    <row r="623" spans="2:3" ht="12.75">
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
     </row>
-    <row r="624" spans="2:3" ht="13.2">
+    <row r="624" spans="2:3" ht="12.75">
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
     </row>
-    <row r="625" spans="2:3" ht="13.2">
+    <row r="625" spans="2:3" ht="12.75">
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
     </row>
-    <row r="626" spans="2:3" ht="13.2">
+    <row r="626" spans="2:3" ht="12.75">
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
     </row>
-    <row r="627" spans="2:3" ht="13.2">
+    <row r="627" spans="2:3" ht="12.75">
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
     </row>
-    <row r="628" spans="2:3" ht="13.2">
+    <row r="628" spans="2:3" ht="12.75">
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
     </row>
-    <row r="629" spans="2:3" ht="13.2">
+    <row r="629" spans="2:3" ht="12.75">
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
     </row>
-    <row r="630" spans="2:3" ht="13.2">
+    <row r="630" spans="2:3" ht="12.75">
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
     </row>
-    <row r="631" spans="2:3" ht="13.2">
+    <row r="631" spans="2:3" ht="12.75">
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
     </row>
-    <row r="632" spans="2:3" ht="13.2">
+    <row r="632" spans="2:3" ht="12.75">
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
     </row>
-    <row r="633" spans="2:3" ht="13.2">
+    <row r="633" spans="2:3" ht="12.75">
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
     </row>
-    <row r="634" spans="2:3" ht="13.2">
+    <row r="634" spans="2:3" ht="12.75">
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
     </row>
-    <row r="635" spans="2:3" ht="13.2">
+    <row r="635" spans="2:3" ht="12.75">
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
     </row>
-    <row r="636" spans="2:3" ht="13.2">
+    <row r="636" spans="2:3" ht="12.75">
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
     </row>
-    <row r="637" spans="2:3" ht="13.2">
+    <row r="637" spans="2:3" ht="12.75">
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
     </row>
-    <row r="638" spans="2:3" ht="13.2">
+    <row r="638" spans="2:3" ht="12.75">
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
     </row>
-    <row r="639" spans="2:3" ht="13.2">
+    <row r="639" spans="2:3" ht="12.75">
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
     </row>
-    <row r="640" spans="2:3" ht="13.2">
+    <row r="640" spans="2:3" ht="12.75">
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
     </row>
-    <row r="641" spans="2:3" ht="13.2">
+    <row r="641" spans="2:3" ht="12.75">
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
     </row>
-    <row r="642" spans="2:3" ht="13.2">
+    <row r="642" spans="2:3" ht="12.75">
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
     </row>
-    <row r="643" spans="2:3" ht="13.2">
+    <row r="643" spans="2:3" ht="12.75">
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
     </row>
-    <row r="644" spans="2:3" ht="13.2">
+    <row r="644" spans="2:3" ht="12.75">
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
     </row>
-    <row r="645" spans="2:3" ht="13.2">
+    <row r="645" spans="2:3" ht="12.75">
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
     </row>
-    <row r="646" spans="2:3" ht="13.2">
+    <row r="646" spans="2:3" ht="12.75">
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
     </row>
-    <row r="647" spans="2:3" ht="13.2">
+    <row r="647" spans="2:3" ht="12.75">
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
     </row>
-    <row r="648" spans="2:3" ht="13.2">
+    <row r="648" spans="2:3" ht="12.75">
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
     </row>
-    <row r="649" spans="2:3" ht="13.2">
+    <row r="649" spans="2:3" ht="12.75">
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
     </row>
-    <row r="650" spans="2:3" ht="13.2">
+    <row r="650" spans="2:3" ht="12.75">
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
     </row>
-    <row r="651" spans="2:3" ht="13.2">
+    <row r="651" spans="2:3" ht="12.75">
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
     </row>
-    <row r="652" spans="2:3" ht="13.2">
+    <row r="652" spans="2:3" ht="12.75">
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
     </row>
-    <row r="653" spans="2:3" ht="13.2">
+    <row r="653" spans="2:3" ht="12.75">
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
     </row>
-    <row r="654" spans="2:3" ht="13.2">
+    <row r="654" spans="2:3" ht="12.75">
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
     </row>
-    <row r="655" spans="2:3" ht="13.2">
+    <row r="655" spans="2:3" ht="12.75">
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
     </row>
-    <row r="656" spans="2:3" ht="13.2">
+    <row r="656" spans="2:3" ht="12.75">
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
     </row>
-    <row r="657" spans="2:3" ht="13.2">
+    <row r="657" spans="2:3" ht="12.75">
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
     </row>
-    <row r="658" spans="2:3" ht="13.2">
+    <row r="658" spans="2:3" ht="12.75">
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
     </row>
-    <row r="659" spans="2:3" ht="13.2">
+    <row r="659" spans="2:3" ht="12.75">
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
     </row>
-    <row r="660" spans="2:3" ht="13.2">
+    <row r="660" spans="2:3" ht="12.75">
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
     </row>
-    <row r="661" spans="2:3" ht="13.2">
+    <row r="661" spans="2:3" ht="12.75">
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
     </row>
-    <row r="662" spans="2:3" ht="13.2">
+    <row r="662" spans="2:3" ht="12.75">
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
     </row>
-    <row r="663" spans="2:3" ht="13.2">
+    <row r="663" spans="2:3" ht="12.75">
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
     </row>
-    <row r="664" spans="2:3" ht="13.2">
+    <row r="664" spans="2:3" ht="12.75">
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
     </row>
-    <row r="665" spans="2:3" ht="13.2">
+    <row r="665" spans="2:3" ht="12.75">
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
     </row>
-    <row r="666" spans="2:3" ht="13.2">
+    <row r="666" spans="2:3" ht="12.75">
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
     </row>
-    <row r="667" spans="2:3" ht="13.2">
+    <row r="667" spans="2:3" ht="12.75">
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
     </row>
-    <row r="668" spans="2:3" ht="13.2">
+    <row r="668" spans="2:3" ht="12.75">
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
     </row>
-    <row r="669" spans="2:3" ht="13.2">
+    <row r="669" spans="2:3" ht="12.75">
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
     </row>
-    <row r="670" spans="2:3" ht="13.2">
+    <row r="670" spans="2:3" ht="12.75">
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
     </row>
-    <row r="671" spans="2:3" ht="13.2">
+    <row r="671" spans="2:3" ht="12.75">
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
     </row>
-    <row r="672" spans="2:3" ht="13.2">
+    <row r="672" spans="2:3" ht="12.75">
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
     </row>
-    <row r="673" spans="2:3" ht="13.2">
+    <row r="673" spans="2:3" ht="12.75">
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
     </row>
-    <row r="674" spans="2:3" ht="13.2">
+    <row r="674" spans="2:3" ht="12.75">
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
     </row>
-    <row r="675" spans="2:3" ht="13.2">
+    <row r="675" spans="2:3" ht="12.75">
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
     </row>
-    <row r="676" spans="2:3" ht="13.2">
+    <row r="676" spans="2:3" ht="12.75">
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
     </row>
-    <row r="677" spans="2:3" ht="13.2">
+    <row r="677" spans="2:3" ht="12.75">
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
     </row>
-    <row r="678" spans="2:3" ht="13.2">
+    <row r="678" spans="2:3" ht="12.75">
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
     </row>
-    <row r="679" spans="2:3" ht="13.2">
+    <row r="679" spans="2:3" ht="12.75">
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
     </row>
-    <row r="680" spans="2:3" ht="13.2">
+    <row r="680" spans="2:3" ht="12.75">
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
     </row>
-    <row r="681" spans="2:3" ht="13.2">
+    <row r="681" spans="2:3" ht="12.75">
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
     </row>
-    <row r="682" spans="2:3" ht="13.2">
+    <row r="682" spans="2:3" ht="12.75">
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
     </row>
-    <row r="683" spans="2:3" ht="13.2">
+    <row r="683" spans="2:3" ht="12.75">
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
     </row>
-    <row r="684" spans="2:3" ht="13.2">
+    <row r="684" spans="2:3" ht="12.75">
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
     </row>
-    <row r="685" spans="2:3" ht="13.2">
+    <row r="685" spans="2:3" ht="12.75">
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
     </row>
-    <row r="686" spans="2:3" ht="13.2">
+    <row r="686" spans="2:3" ht="12.75">
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
     </row>
-    <row r="687" spans="2:3" ht="13.2">
+    <row r="687" spans="2:3" ht="12.75">
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
     </row>
-    <row r="688" spans="2:3" ht="13.2">
+    <row r="688" spans="2:3" ht="12.75">
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
     </row>
-    <row r="689" spans="2:3" ht="13.2">
+    <row r="689" spans="2:3" ht="12.75">
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
     </row>
-    <row r="690" spans="2:3" ht="13.2">
+    <row r="690" spans="2:3" ht="12.75">
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
     </row>
-    <row r="691" spans="2:3" ht="13.2">
+    <row r="691" spans="2:3" ht="12.75">
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
     </row>
-    <row r="692" spans="2:3" ht="13.2">
+    <row r="692" spans="2:3" ht="12.75">
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
     </row>
-    <row r="693" spans="2:3" ht="13.2">
+    <row r="693" spans="2:3" ht="12.75">
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
     </row>
-    <row r="694" spans="2:3" ht="13.2">
+    <row r="694" spans="2:3" ht="12.75">
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
     </row>
-    <row r="695" spans="2:3" ht="13.2">
+    <row r="695" spans="2:3" ht="12.75">
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
     </row>
-    <row r="696" spans="2:3" ht="13.2">
+    <row r="696" spans="2:3" ht="12.75">
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
     </row>
-    <row r="697" spans="2:3" ht="13.2">
+    <row r="697" spans="2:3" ht="12.75">
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
     </row>
-    <row r="698" spans="2:3" ht="13.2">
+    <row r="698" spans="2:3" ht="12.75">
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
     </row>
-    <row r="699" spans="2:3" ht="13.2">
+    <row r="699" spans="2:3" ht="12.75">
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
     </row>
-    <row r="700" spans="2:3" ht="13.2">
+    <row r="700" spans="2:3" ht="12.75">
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
     </row>
-    <row r="701" spans="2:3" ht="13.2">
+    <row r="701" spans="2:3" ht="12.75">
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
     </row>
-    <row r="702" spans="2:3" ht="13.2">
+    <row r="702" spans="2:3" ht="12.75">
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
     </row>
-    <row r="703" spans="2:3" ht="13.2">
+    <row r="703" spans="2:3" ht="12.75">
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
     </row>
-    <row r="704" spans="2:3" ht="13.2">
+    <row r="704" spans="2:3" ht="12.75">
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
     </row>
-    <row r="705" spans="2:3" ht="13.2">
+    <row r="705" spans="2:3" ht="12.75">
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
     </row>
-    <row r="706" spans="2:3" ht="13.2">
+    <row r="706" spans="2:3" ht="12.75">
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
     </row>
-    <row r="707" spans="2:3" ht="13.2">
+    <row r="707" spans="2:3" ht="12.75">
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
     </row>
-    <row r="708" spans="2:3" ht="13.2">
+    <row r="708" spans="2:3" ht="12.75">
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
     </row>
-    <row r="709" spans="2:3" ht="13.2">
+    <row r="709" spans="2:3" ht="12.75">
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
     </row>
-    <row r="710" spans="2:3" ht="13.2">
+    <row r="710" spans="2:3" ht="12.75">
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
     </row>
-    <row r="711" spans="2:3" ht="13.2">
+    <row r="711" spans="2:3" ht="12.75">
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
     </row>
-    <row r="712" spans="2:3" ht="13.2">
+    <row r="712" spans="2:3" ht="12.75">
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
     </row>
-    <row r="713" spans="2:3" ht="13.2">
+    <row r="713" spans="2:3" ht="12.75">
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
     </row>
-    <row r="714" spans="2:3" ht="13.2">
+    <row r="714" spans="2:3" ht="12.75">
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
     </row>
-    <row r="715" spans="2:3" ht="13.2">
+    <row r="715" spans="2:3" ht="12.75">
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
     </row>
-    <row r="716" spans="2:3" ht="13.2">
+    <row r="716" spans="2:3" ht="12.75">
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
     </row>
-    <row r="717" spans="2:3" ht="13.2">
+    <row r="717" spans="2:3" ht="12.75">
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
     </row>
-    <row r="718" spans="2:3" ht="13.2">
+    <row r="718" spans="2:3" ht="12.75">
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
     </row>
-    <row r="719" spans="2:3" ht="13.2">
+    <row r="719" spans="2:3" ht="12.75">
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
     </row>
-    <row r="720" spans="2:3" ht="13.2">
+    <row r="720" spans="2:3" ht="12.75">
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
     </row>
-    <row r="721" spans="2:3" ht="13.2">
+    <row r="721" spans="2:3" ht="12.75">
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
     </row>
-    <row r="722" spans="2:3" ht="13.2">
+    <row r="722" spans="2:3" ht="12.75">
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
     </row>
-    <row r="723" spans="2:3" ht="13.2">
+    <row r="723" spans="2:3" ht="12.75">
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
     </row>
-    <row r="724" spans="2:3" ht="13.2">
+    <row r="724" spans="2:3" ht="12.75">
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
     </row>
-    <row r="725" spans="2:3" ht="13.2">
+    <row r="725" spans="2:3" ht="12.75">
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
     </row>
-    <row r="726" spans="2:3" ht="13.2">
+    <row r="726" spans="2:3" ht="12.75">
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
     </row>
-    <row r="727" spans="2:3" ht="13.2">
+    <row r="727" spans="2:3" ht="12.75">
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
     </row>
-    <row r="728" spans="2:3" ht="13.2">
+    <row r="728" spans="2:3" ht="12.75">
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
     </row>
-    <row r="729" spans="2:3" ht="13.2">
+    <row r="729" spans="2:3" ht="12.75">
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
     </row>
-    <row r="730" spans="2:3" ht="13.2">
+    <row r="730" spans="2:3" ht="12.75">
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
     </row>
-    <row r="731" spans="2:3" ht="13.2">
+    <row r="731" spans="2:3" ht="12.75">
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
     </row>
-    <row r="732" spans="2:3" ht="13.2">
+    <row r="732" spans="2:3" ht="12.75">
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
     </row>
-    <row r="733" spans="2:3" ht="13.2">
+    <row r="733" spans="2:3" ht="12.75">
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
     </row>
-    <row r="734" spans="2:3" ht="13.2">
+    <row r="734" spans="2:3" ht="12.75">
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
     </row>
-    <row r="735" spans="2:3" ht="13.2">
+    <row r="735" spans="2:3" ht="12.75">
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
     </row>
-    <row r="736" spans="2:3" ht="13.2">
+    <row r="736" spans="2:3" ht="12.75">
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
     </row>
-    <row r="737" spans="2:3" ht="13.2">
+    <row r="737" spans="2:3" ht="12.75">
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
     </row>
-    <row r="738" spans="2:3" ht="13.2">
+    <row r="738" spans="2:3" ht="12.75">
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
     </row>
-    <row r="739" spans="2:3" ht="13.2">
+    <row r="739" spans="2:3" ht="12.75">
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
     </row>
-    <row r="740" spans="2:3" ht="13.2">
+    <row r="740" spans="2:3" ht="12.75">
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
     </row>
-    <row r="741" spans="2:3" ht="13.2">
+    <row r="741" spans="2:3" ht="12.75">
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
     </row>
-    <row r="742" spans="2:3" ht="13.2">
+    <row r="742" spans="2:3" ht="12.75">
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
     </row>
-    <row r="743" spans="2:3" ht="13.2">
+    <row r="743" spans="2:3" ht="12.75">
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
     </row>
-    <row r="744" spans="2:3" ht="13.2">
+    <row r="744" spans="2:3" ht="12.75">
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
     </row>
-    <row r="745" spans="2:3" ht="13.2">
+    <row r="745" spans="2:3" ht="12.75">
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
     </row>
-    <row r="746" spans="2:3" ht="13.2">
+    <row r="746" spans="2:3" ht="12.75">
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
     </row>
-    <row r="747" spans="2:3" ht="13.2">
+    <row r="747" spans="2:3" ht="12.75">
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
     </row>
-    <row r="748" spans="2:3" ht="13.2">
+    <row r="748" spans="2:3" ht="12.75">
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
     </row>
-    <row r="749" spans="2:3" ht="13.2">
+    <row r="749" spans="2:3" ht="12.75">
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
     </row>
-    <row r="750" spans="2:3" ht="13.2">
+    <row r="750" spans="2:3" ht="12.75">
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
     </row>
-    <row r="751" spans="2:3" ht="13.2">
+    <row r="751" spans="2:3" ht="12.75">
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
     </row>
-    <row r="752" spans="2:3" ht="13.2">
+    <row r="752" spans="2:3" ht="12.75">
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
     </row>
-    <row r="753" spans="2:3" ht="13.2">
+    <row r="753" spans="2:3" ht="12.75">
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
     </row>
-    <row r="754" spans="2:3" ht="13.2">
+    <row r="754" spans="2:3" ht="12.75">
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
     </row>
-    <row r="755" spans="2:3" ht="13.2">
+    <row r="755" spans="2:3" ht="12.75">
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
     </row>
-    <row r="756" spans="2:3" ht="13.2">
+    <row r="756" spans="2:3" ht="12.75">
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
     </row>
-    <row r="757" spans="2:3" ht="13.2">
+    <row r="757" spans="2:3" ht="12.75">
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
     </row>
-    <row r="758" spans="2:3" ht="13.2">
+    <row r="758" spans="2:3" ht="12.75">
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
     </row>
-    <row r="759" spans="2:3" ht="13.2">
+    <row r="759" spans="2:3" ht="12.75">
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
     </row>
-    <row r="760" spans="2:3" ht="13.2">
+    <row r="760" spans="2:3" ht="12.75">
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
     </row>
-    <row r="761" spans="2:3" ht="13.2">
+    <row r="761" spans="2:3" ht="12.75">
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
     </row>
-    <row r="762" spans="2:3" ht="13.2">
+    <row r="762" spans="2:3" ht="12.75">
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
     </row>
-    <row r="763" spans="2:3" ht="13.2">
+    <row r="763" spans="2:3" ht="12.75">
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
     </row>
-    <row r="764" spans="2:3" ht="13.2">
+    <row r="764" spans="2:3" ht="12.75">
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
     </row>
-    <row r="765" spans="2:3" ht="13.2">
+    <row r="765" spans="2:3" ht="12.75">
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
     </row>
-    <row r="766" spans="2:3" ht="13.2">
+    <row r="766" spans="2:3" ht="12.75">
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
     </row>
-    <row r="767" spans="2:3" ht="13.2">
+    <row r="767" spans="2:3" ht="12.75">
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
     </row>
-    <row r="768" spans="2:3" ht="13.2">
+    <row r="768" spans="2:3" ht="12.75">
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
     </row>
-    <row r="769" spans="2:3" ht="13.2">
+    <row r="769" spans="2:3" ht="12.75">
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
     </row>
-    <row r="770" spans="2:3" ht="13.2">
+    <row r="770" spans="2:3" ht="12.75">
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
     </row>
-    <row r="771" spans="2:3" ht="13.2">
+    <row r="771" spans="2:3" ht="12.75">
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
     </row>
-    <row r="772" spans="2:3" ht="13.2">
+    <row r="772" spans="2:3" ht="12.75">
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
     </row>
-    <row r="773" spans="2:3" ht="13.2">
+    <row r="773" spans="2:3" ht="12.75">
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
     </row>
-    <row r="774" spans="2:3" ht="13.2">
+    <row r="774" spans="2:3" ht="12.75">
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
     </row>
-    <row r="775" spans="2:3" ht="13.2">
+    <row r="775" spans="2:3" ht="12.75">
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
     </row>
-    <row r="776" spans="2:3" ht="13.2">
+    <row r="776" spans="2:3" ht="12.75">
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
     </row>
-    <row r="777" spans="2:3" ht="13.2">
+    <row r="777" spans="2:3" ht="12.75">
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
     </row>
-    <row r="778" spans="2:3" ht="13.2">
+    <row r="778" spans="2:3" ht="12.75">
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
     </row>
-    <row r="779" spans="2:3" ht="13.2">
+    <row r="779" spans="2:3" ht="12.75">
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
     </row>
-    <row r="780" spans="2:3" ht="13.2">
+    <row r="780" spans="2:3" ht="12.75">
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
     </row>
-    <row r="781" spans="2:3" ht="13.2">
+    <row r="781" spans="2:3" ht="12.75">
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
     </row>
-    <row r="782" spans="2:3" ht="13.2">
+    <row r="782" spans="2:3" ht="12.75">
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
     </row>
-    <row r="783" spans="2:3" ht="13.2">
+    <row r="783" spans="2:3" ht="12.75">
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
     </row>
-    <row r="784" spans="2:3" ht="13.2">
+    <row r="784" spans="2:3" ht="12.75">
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
     </row>
-    <row r="785" spans="2:3" ht="13.2">
+    <row r="785" spans="2:3" ht="12.75">
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
     </row>
-    <row r="786" spans="2:3" ht="13.2">
+    <row r="786" spans="2:3" ht="12.75">
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
     </row>
-    <row r="787" spans="2:3" ht="13.2">
+    <row r="787" spans="2:3" ht="12.75">
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
     </row>
-    <row r="788" spans="2:3" ht="13.2">
+    <row r="788" spans="2:3" ht="12.75">
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
     </row>
-    <row r="789" spans="2:3" ht="13.2">
+    <row r="789" spans="2:3" ht="12.75">
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
     </row>
-    <row r="790" spans="2:3" ht="13.2">
+    <row r="790" spans="2:3" ht="12.75">
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
     </row>
-    <row r="791" spans="2:3" ht="13.2">
+    <row r="791" spans="2:3" ht="12.75">
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
     </row>
-    <row r="792" spans="2:3" ht="13.2">
+    <row r="792" spans="2:3" ht="12.75">
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
     </row>
-    <row r="793" spans="2:3" ht="13.2">
+    <row r="793" spans="2:3" ht="12.75">
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
     </row>
-    <row r="794" spans="2:3" ht="13.2">
+    <row r="794" spans="2:3" ht="12.75">
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
     </row>
-    <row r="795" spans="2:3" ht="13.2">
+    <row r="795" spans="2:3" ht="12.75">
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
     </row>
-    <row r="796" spans="2:3" ht="13.2">
+    <row r="796" spans="2:3" ht="12.75">
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
     </row>
-    <row r="797" spans="2:3" ht="13.2">
+    <row r="797" spans="2:3" ht="12.75">
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
     </row>
-    <row r="798" spans="2:3" ht="13.2">
+    <row r="798" spans="2:3" ht="12.75">
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
     </row>
-    <row r="799" spans="2:3" ht="13.2">
+    <row r="799" spans="2:3" ht="12.75">
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
     </row>
-    <row r="800" spans="2:3" ht="13.2">
+    <row r="800" spans="2:3" ht="12.75">
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
     </row>
-    <row r="801" spans="2:3" ht="13.2">
+    <row r="801" spans="2:3" ht="12.75">
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
     </row>
-    <row r="802" spans="2:3" ht="13.2">
+    <row r="802" spans="2:3" ht="12.75">
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
     </row>
-    <row r="803" spans="2:3" ht="13.2">
+    <row r="803" spans="2:3" ht="12.75">
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
     </row>
-    <row r="804" spans="2:3" ht="13.2">
+    <row r="804" spans="2:3" ht="12.75">
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
     </row>
-    <row r="805" spans="2:3" ht="13.2">
+    <row r="805" spans="2:3" ht="12.75">
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
     </row>
-    <row r="806" spans="2:3" ht="13.2">
+    <row r="806" spans="2:3" ht="12.75">
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
     </row>
-    <row r="807" spans="2:3" ht="13.2">
+    <row r="807" spans="2:3" ht="12.75">
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
     </row>
-    <row r="808" spans="2:3" ht="13.2">
+    <row r="808" spans="2:3" ht="12.75">
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
     </row>
-    <row r="809" spans="2:3" ht="13.2">
+    <row r="809" spans="2:3" ht="12.75">
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
     </row>
-    <row r="810" spans="2:3" ht="13.2">
+    <row r="810" spans="2:3" ht="12.75">
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
     </row>
-    <row r="811" spans="2:3" ht="13.2">
+    <row r="811" spans="2:3" ht="12.75">
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
     </row>
-    <row r="812" spans="2:3" ht="13.2">
+    <row r="812" spans="2:3" ht="12.75">
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
     </row>
-    <row r="813" spans="2:3" ht="13.2">
+    <row r="813" spans="2:3" ht="12.75">
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
     </row>
-    <row r="814" spans="2:3" ht="13.2">
+    <row r="814" spans="2:3" ht="12.75">
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
     </row>
-    <row r="815" spans="2:3" ht="13.2">
+    <row r="815" spans="2:3" ht="12.75">
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
     </row>
-    <row r="816" spans="2:3" ht="13.2">
+    <row r="816" spans="2:3" ht="12.75">
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
     </row>
-    <row r="817" spans="2:3" ht="13.2">
+    <row r="817" spans="2:3" ht="12.75">
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
     </row>
-    <row r="818" spans="2:3" ht="13.2">
+    <row r="818" spans="2:3" ht="12.75">
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
     </row>
-    <row r="819" spans="2:3" ht="13.2">
+    <row r="819" spans="2:3" ht="12.75">
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
     </row>
-    <row r="820" spans="2:3" ht="13.2">
+    <row r="820" spans="2:3" ht="12.75">
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
     </row>
-    <row r="821" spans="2:3" ht="13.2">
+    <row r="821" spans="2:3" ht="12.75">
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
     </row>
-    <row r="822" spans="2:3" ht="13.2">
+    <row r="822" spans="2:3" ht="12.75">
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
     </row>
-    <row r="823" spans="2:3" ht="13.2">
+    <row r="823" spans="2:3" ht="12.75">
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
     </row>
-    <row r="824" spans="2:3" ht="13.2">
+    <row r="824" spans="2:3" ht="12.75">
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
     </row>
-    <row r="825" spans="2:3" ht="13.2">
+    <row r="825" spans="2:3" ht="12.75">
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
     </row>
-    <row r="826" spans="2:3" ht="13.2">
+    <row r="826" spans="2:3" ht="12.75">
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
     </row>
-    <row r="827" spans="2:3" ht="13.2">
+    <row r="827" spans="2:3" ht="12.75">
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
     </row>
-    <row r="828" spans="2:3" ht="13.2">
+    <row r="828" spans="2:3" ht="12.75">
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
     </row>
-    <row r="829" spans="2:3" ht="13.2">
+    <row r="829" spans="2:3" ht="12.75">
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
     </row>
-    <row r="830" spans="2:3" ht="13.2">
+    <row r="830" spans="2:3" ht="12.75">
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
     </row>
-    <row r="831" spans="2:3" ht="13.2">
+    <row r="831" spans="2:3" ht="12.75">
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
     </row>
-    <row r="832" spans="2:3" ht="13.2">
+    <row r="832" spans="2:3" ht="12.75">
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
     </row>
-    <row r="833" spans="2:3" ht="13.2">
+    <row r="833" spans="2:3" ht="12.75">
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
     </row>
-    <row r="834" spans="2:3" ht="13.2">
+    <row r="834" spans="2:3" ht="12.75">
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
     </row>
-    <row r="835" spans="2:3" ht="13.2">
+    <row r="835" spans="2:3" ht="12.75">
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
     </row>
-    <row r="836" spans="2:3" ht="13.2">
+    <row r="836" spans="2:3" ht="12.75">
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
     </row>
-    <row r="837" spans="2:3" ht="13.2">
+    <row r="837" spans="2:3" ht="12.75">
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
     </row>
-    <row r="838" spans="2:3" ht="13.2">
+    <row r="838" spans="2:3" ht="12.75">
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
     </row>
-    <row r="839" spans="2:3" ht="13.2">
+    <row r="839" spans="2:3" ht="12.75">
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
     </row>
-    <row r="840" spans="2:3" ht="13.2">
+    <row r="840" spans="2:3" ht="12.75">
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
     </row>
-    <row r="841" spans="2:3" ht="13.2">
+    <row r="841" spans="2:3" ht="12.75">
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
     </row>
-    <row r="842" spans="2:3" ht="13.2">
+    <row r="842" spans="2:3" ht="12.75">
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
     </row>
-    <row r="843" spans="2:3" ht="13.2">
+    <row r="843" spans="2:3" ht="12.75">
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
     </row>
-    <row r="844" spans="2:3" ht="13.2">
+    <row r="844" spans="2:3" ht="12.75">
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
     </row>
-    <row r="845" spans="2:3" ht="13.2">
+    <row r="845" spans="2:3" ht="12.75">
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
     </row>
-    <row r="846" spans="2:3" ht="13.2">
+    <row r="846" spans="2:3" ht="12.75">
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
     </row>
-    <row r="847" spans="2:3" ht="13.2">
+    <row r="847" spans="2:3" ht="12.75">
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
     </row>
-    <row r="848" spans="2:3" ht="13.2">
+    <row r="848" spans="2:3" ht="12.75">
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
     </row>
-    <row r="849" spans="2:3" ht="13.2">
+    <row r="849" spans="2:3" ht="12.75">
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
     </row>
-    <row r="850" spans="2:3" ht="13.2">
+    <row r="850" spans="2:3" ht="12.75">
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
     </row>
-    <row r="851" spans="2:3" ht="13.2">
+    <row r="851" spans="2:3" ht="12.75">
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
     </row>
-    <row r="852" spans="2:3" ht="13.2">
+    <row r="852" spans="2:3" ht="12.75">
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
     </row>
-    <row r="853" spans="2:3" ht="13.2">
+    <row r="853" spans="2:3" ht="12.75">
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
     </row>
-    <row r="854" spans="2:3" ht="13.2">
+    <row r="854" spans="2:3" ht="12.75">
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
     </row>
-    <row r="855" spans="2:3" ht="13.2">
+    <row r="855" spans="2:3" ht="12.75">
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
     </row>
-    <row r="856" spans="2:3" ht="13.2">
+    <row r="856" spans="2:3" ht="12.75">
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
     </row>
-    <row r="857" spans="2:3" ht="13.2">
+    <row r="857" spans="2:3" ht="12.75">
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
     </row>
-    <row r="858" spans="2:3" ht="13.2">
+    <row r="858" spans="2:3" ht="12.75">
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
     </row>
-    <row r="859" spans="2:3" ht="13.2">
+    <row r="859" spans="2:3" ht="12.75">
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
     </row>
-    <row r="860" spans="2:3" ht="13.2">
+    <row r="860" spans="2:3" ht="12.75">
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
     </row>
-    <row r="861" spans="2:3" ht="13.2">
+    <row r="861" spans="2:3" ht="12.75">
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
     </row>
-    <row r="862" spans="2:3" ht="13.2">
+    <row r="862" spans="2:3" ht="12.75">
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
     </row>
-    <row r="863" spans="2:3" ht="13.2">
+    <row r="863" spans="2:3" ht="12.75">
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
     </row>
-    <row r="864" spans="2:3" ht="13.2">
+    <row r="864" spans="2:3" ht="12.75">
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
     </row>
-    <row r="865" spans="2:3" ht="13.2">
+    <row r="865" spans="2:3" ht="12.75">
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
     </row>
-    <row r="866" spans="2:3" ht="13.2">
+    <row r="866" spans="2:3" ht="12.75">
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
     </row>
-    <row r="867" spans="2:3" ht="13.2">
+    <row r="867" spans="2:3" ht="12.75">
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
     </row>
-    <row r="868" spans="2:3" ht="13.2">
+    <row r="868" spans="2:3" ht="12.75">
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
     </row>
-    <row r="869" spans="2:3" ht="13.2">
+    <row r="869" spans="2:3" ht="12.75">
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
     </row>
-    <row r="870" spans="2:3" ht="13.2">
+    <row r="870" spans="2:3" ht="12.75">
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
     </row>
-    <row r="871" spans="2:3" ht="13.2">
+    <row r="871" spans="2:3" ht="12.75">
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
     </row>
-    <row r="872" spans="2:3" ht="13.2">
+    <row r="872" spans="2:3" ht="12.75">
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
     </row>
-    <row r="873" spans="2:3" ht="13.2">
+    <row r="873" spans="2:3" ht="12.75">
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
     </row>
-    <row r="874" spans="2:3" ht="13.2">
+    <row r="874" spans="2:3" ht="12.75">
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
     </row>
-    <row r="875" spans="2:3" ht="13.2">
+    <row r="875" spans="2:3" ht="12.75">
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
     </row>
-    <row r="876" spans="2:3" ht="13.2">
+    <row r="876" spans="2:3" ht="12.75">
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
     </row>
-    <row r="877" spans="2:3" ht="13.2">
+    <row r="877" spans="2:3" ht="12.75">
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
     </row>
-    <row r="878" spans="2:3" ht="13.2">
+    <row r="878" spans="2:3" ht="12.75">
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
     </row>
-    <row r="879" spans="2:3" ht="13.2">
+    <row r="879" spans="2:3" ht="12.75">
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
     </row>
-    <row r="880" spans="2:3" ht="13.2">
+    <row r="880" spans="2:3" ht="12.75">
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
     </row>
-    <row r="881" spans="2:3" ht="13.2">
+    <row r="881" spans="2:3" ht="12.75">
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
     </row>
-    <row r="882" spans="2:3" ht="13.2">
+    <row r="882" spans="2:3" ht="12.75">
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
     </row>
-    <row r="883" spans="2:3" ht="13.2">
+    <row r="883" spans="2:3" ht="12.75">
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
     </row>
-    <row r="884" spans="2:3" ht="13.2">
+    <row r="884" spans="2:3" ht="12.75">
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
     </row>
-    <row r="885" spans="2:3" ht="13.2">
+    <row r="885" spans="2:3" ht="12.75">
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
     </row>
-    <row r="886" spans="2:3" ht="13.2">
+    <row r="886" spans="2:3" ht="12.75">
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
     </row>
-    <row r="887" spans="2:3" ht="13.2">
+    <row r="887" spans="2:3" ht="12.75">
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
     </row>
-    <row r="888" spans="2:3" ht="13.2">
+    <row r="888" spans="2:3" ht="12.75">
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
     </row>
-    <row r="889" spans="2:3" ht="13.2">
+    <row r="889" spans="2:3" ht="12.75">
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
     </row>
-    <row r="890" spans="2:3" ht="13.2">
+    <row r="890" spans="2:3" ht="12.75">
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
     </row>
-    <row r="891" spans="2:3" ht="13.2">
+    <row r="891" spans="2:3" ht="12.75">
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
     </row>
-    <row r="892" spans="2:3" ht="13.2">
+    <row r="892" spans="2:3" ht="12.75">
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
     </row>
-    <row r="893" spans="2:3" ht="13.2">
+    <row r="893" spans="2:3" ht="12.75">
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
     </row>
-    <row r="894" spans="2:3" ht="13.2">
+    <row r="894" spans="2:3" ht="12.75">
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
     </row>
-    <row r="895" spans="2:3" ht="13.2">
+    <row r="895" spans="2:3" ht="12.75">
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
     </row>
-    <row r="896" spans="2:3" ht="13.2">
+    <row r="896" spans="2:3" ht="12.75">
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
     </row>
-    <row r="897" spans="2:3" ht="13.2">
+    <row r="897" spans="2:3" ht="12.75">
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
     </row>
-    <row r="898" spans="2:3" ht="13.2">
+    <row r="898" spans="2:3" ht="12.75">
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
     </row>
-    <row r="899" spans="2:3" ht="13.2">
+    <row r="899" spans="2:3" ht="12.75">
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
     </row>
-    <row r="900" spans="2:3" ht="13.2">
+    <row r="900" spans="2:3" ht="12.75">
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
     </row>
-    <row r="901" spans="2:3" ht="13.2">
+    <row r="901" spans="2:3" ht="12.75">
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
     </row>
-    <row r="902" spans="2:3" ht="13.2">
+    <row r="902" spans="2:3" ht="12.75">
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
     </row>
-    <row r="903" spans="2:3" ht="13.2">
+    <row r="903" spans="2:3" ht="12.75">
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
     </row>
-    <row r="904" spans="2:3" ht="13.2">
+    <row r="904" spans="2:3" ht="12.75">
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
     </row>
-    <row r="905" spans="2:3" ht="13.2">
+    <row r="905" spans="2:3" ht="12.75">
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
     </row>
-    <row r="906" spans="2:3" ht="13.2">
+    <row r="906" spans="2:3" ht="12.75">
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
     </row>
-    <row r="907" spans="2:3" ht="13.2">
+    <row r="907" spans="2:3" ht="12.75">
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
     </row>
-    <row r="908" spans="2:3" ht="13.2">
+    <row r="908" spans="2:3" ht="12.75">
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
     </row>
-    <row r="909" spans="2:3" ht="13.2">
+    <row r="909" spans="2:3" ht="12.75">
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
     </row>
-    <row r="910" spans="2:3" ht="13.2">
+    <row r="910" spans="2:3" ht="12.75">
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
     </row>
-    <row r="911" spans="2:3" ht="13.2">
+    <row r="911" spans="2:3" ht="12.75">
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
     </row>
-    <row r="912" spans="2:3" ht="13.2">
+    <row r="912" spans="2:3" ht="12.75">
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
     </row>
-    <row r="913" spans="2:3" ht="13.2">
+    <row r="913" spans="2:3" ht="12.75">
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
     </row>
-    <row r="914" spans="2:3" ht="13.2">
+    <row r="914" spans="2:3" ht="12.75">
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
     </row>
-    <row r="915" spans="2:3" ht="13.2">
+    <row r="915" spans="2:3" ht="12.75">
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
     </row>
-    <row r="916" spans="2:3" ht="13.2">
+    <row r="916" spans="2:3" ht="12.75">
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
     </row>
-    <row r="917" spans="2:3" ht="13.2">
+    <row r="917" spans="2:3" ht="12.75">
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
     </row>
-    <row r="918" spans="2:3" ht="13.2">
+    <row r="918" spans="2:3" ht="12.75">
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
     </row>
-    <row r="919" spans="2:3" ht="13.2">
+    <row r="919" spans="2:3" ht="12.75">
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
     </row>
-    <row r="920" spans="2:3" ht="13.2">
+    <row r="920" spans="2:3" ht="12.75">
       <c r="B920" s="2"/>
       <c r="C920" s="2"/>
     </row>
-    <row r="921" spans="2:3" ht="13.2">
+    <row r="921" spans="2:3" ht="12.75">
       <c r="B921" s="2"/>
       <c r="C921" s="2"/>
     </row>
-    <row r="922" spans="2:3" ht="13.2">
+    <row r="922" spans="2:3" ht="12.75">
       <c r="B922" s="2"/>
       <c r="C922" s="2"/>
     </row>
-    <row r="923" spans="2:3" ht="13.2">
+    <row r="923" spans="2:3" ht="12.75">
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
     </row>
-    <row r="924" spans="2:3" ht="13.2">
+    <row r="924" spans="2:3" ht="12.75">
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
     </row>
-    <row r="925" spans="2:3" ht="13.2">
+    <row r="925" spans="2:3" ht="12.75">
       <c r="B925" s="2"/>
       <c r="C925" s="2"/>
     </row>
-    <row r="926" spans="2:3" ht="13.2">
+    <row r="926" spans="2:3" ht="12.75">
       <c r="B926" s="2"/>
       <c r="C926" s="2"/>
     </row>
-    <row r="927" spans="2:3" ht="13.2">
+    <row r="927" spans="2:3" ht="12.75">
       <c r="B927" s="2"/>
       <c r="C927" s="2"/>
     </row>
-    <row r="928" spans="2:3" ht="13.2">
+    <row r="928" spans="2:3" ht="12.75">
       <c r="B928" s="2"/>
       <c r="C928" s="2"/>
     </row>
-    <row r="929" spans="2:3" ht="13.2">
+    <row r="929" spans="2:3" ht="12.75">
       <c r="B929" s="2"/>
       <c r="C929" s="2"/>
     </row>
-    <row r="930" spans="2:3" ht="13.2">
+    <row r="930" spans="2:3" ht="12.75">
       <c r="B930" s="2"/>
       <c r="C930" s="2"/>
     </row>
-    <row r="931" spans="2:3" ht="13.2">
+    <row r="931" spans="2:3" ht="12.75">
       <c r="B931" s="2"/>
       <c r="C931" s="2"/>
     </row>
-    <row r="932" spans="2:3" ht="13.2">
+    <row r="932" spans="2:3" ht="12.75">
       <c r="B932" s="2"/>
       <c r="C932" s="2"/>
     </row>
-    <row r="933" spans="2:3" ht="13.2">
+    <row r="933" spans="2:3" ht="12.75">
       <c r="B933" s="2"/>
       <c r="C933" s="2"/>
     </row>
-    <row r="934" spans="2:3" ht="13.2">
+    <row r="934" spans="2:3" ht="12.75">
       <c r="B934" s="2"/>
       <c r="C934" s="2"/>
     </row>
-    <row r="935" spans="2:3" ht="13.2">
+    <row r="935" spans="2:3" ht="12.75">
       <c r="B935" s="2"/>
       <c r="C935" s="2"/>
     </row>
-    <row r="936" spans="2:3" ht="13.2">
+    <row r="936" spans="2:3" ht="12.75">
       <c r="B936" s="2"/>
       <c r="C936" s="2"/>
     </row>
-    <row r="937" spans="2:3" ht="13.2">
+    <row r="937" spans="2:3" ht="12.75">
       <c r="B937" s="2"/>
       <c r="C937" s="2"/>
     </row>
-    <row r="938" spans="2:3" ht="13.2">
+    <row r="938" spans="2:3" ht="12.75">
       <c r="B938" s="2"/>
       <c r="C938" s="2"/>
     </row>
-    <row r="939" spans="2:3" ht="13.2">
+    <row r="939" spans="2:3" ht="12.75">
       <c r="B939" s="2"/>
       <c r="C939" s="2"/>
     </row>
-    <row r="940" spans="2:3" ht="13.2">
+    <row r="940" spans="2:3" ht="12.75">
       <c r="B940" s="2"/>
       <c r="C940" s="2"/>
     </row>
-    <row r="941" spans="2:3" ht="13.2">
+    <row r="941" spans="2:3" ht="12.75">
       <c r="B941" s="2"/>
       <c r="C941" s="2"/>
     </row>
-    <row r="942" spans="2:3" ht="13.2">
+    <row r="942" spans="2:3" ht="12.75">
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
     </row>
-    <row r="943" spans="2:3" ht="13.2">
+    <row r="943" spans="2:3" ht="12.75">
       <c r="B943" s="2"/>
       <c r="C943" s="2"/>
     </row>
-    <row r="944" spans="2:3" ht="13.2">
+    <row r="944" spans="2:3" ht="12.75">
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
     </row>
-    <row r="945" spans="2:3" ht="13.2">
+    <row r="945" spans="2:3" ht="12.75">
       <c r="B945" s="2"/>
       <c r="C945" s="2"/>
     </row>
-    <row r="946" spans="2:3" ht="13.2">
+    <row r="946" spans="2:3" ht="12.75">
       <c r="B946" s="2"/>
       <c r="C946" s="2"/>
     </row>
-    <row r="947" spans="2:3" ht="13.2">
+    <row r="947" spans="2:3" ht="12.75">
       <c r="B947" s="2"/>
       <c r="C947" s="2"/>
     </row>
-    <row r="948" spans="2:3" ht="13.2">
+    <row r="948" spans="2:3" ht="12.75">
       <c r="B948" s="2"/>
       <c r="C948" s="2"/>
     </row>
-    <row r="949" spans="2:3" ht="13.2">
+    <row r="949" spans="2:3" ht="12.75">
       <c r="B949" s="2"/>
       <c r="C949" s="2"/>
     </row>
-    <row r="950" spans="2:3" ht="13.2">
+    <row r="950" spans="2:3" ht="12.75">
       <c r="B950" s="2"/>
       <c r="C950" s="2"/>
     </row>
-    <row r="951" spans="2:3" ht="13.2">
+    <row r="951" spans="2:3" ht="12.75">
       <c r="B951" s="2"/>
       <c r="C951" s="2"/>
     </row>
-    <row r="952" spans="2:3" ht="13.2">
+    <row r="952" spans="2:3" ht="12.75">
       <c r="B952" s="2"/>
       <c r="C952" s="2"/>
     </row>
-    <row r="953" spans="2:3" ht="13.2">
+    <row r="953" spans="2:3" ht="12.75">
       <c r="B953" s="2"/>
       <c r="C953" s="2"/>
     </row>
-    <row r="954" spans="2:3" ht="13.2">
+    <row r="954" spans="2:3" ht="12.75">
       <c r="B954" s="2"/>
       <c r="C954" s="2"/>
     </row>
-    <row r="955" spans="2:3" ht="13.2">
+    <row r="955" spans="2:3" ht="12.75">
       <c r="B955" s="2"/>
       <c r="C955" s="2"/>
     </row>
-    <row r="956" spans="2:3" ht="13.2">
+    <row r="956" spans="2:3" ht="12.75">
       <c r="B956" s="2"/>
       <c r="C956" s="2"/>
     </row>
-    <row r="957" spans="2:3" ht="13.2">
+    <row r="957" spans="2:3" ht="12.75">
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
     </row>
-    <row r="958" spans="2:3" ht="13.2">
+    <row r="958" spans="2:3" ht="12.75">
       <c r="B958" s="2"/>
       <c r="C958" s="2"/>
     </row>
-    <row r="959" spans="2:3" ht="13.2">
+    <row r="959" spans="2:3" ht="12.75">
       <c r="B959" s="2"/>
       <c r="C959" s="2"/>
     </row>
-    <row r="960" spans="2:3" ht="13.2">
+    <row r="960" spans="2:3" ht="12.75">
       <c r="B960" s="2"/>
       <c r="C960" s="2"/>
     </row>
-    <row r="961" spans="2:3" ht="13.2">
+    <row r="961" spans="2:3" ht="12.75">
       <c r="B961" s="2"/>
       <c r="C961" s="2"/>
     </row>
-    <row r="962" spans="2:3" ht="13.2">
+    <row r="962" spans="2:3" ht="12.75">
       <c r="B962" s="2"/>
       <c r="C962" s="2"/>
     </row>
-    <row r="963" spans="2:3" ht="13.2">
+    <row r="963" spans="2:3" ht="12.75">
       <c r="B963" s="2"/>
       <c r="C963" s="2"/>
     </row>
-    <row r="964" spans="2:3" ht="13.2">
+    <row r="964" spans="2:3" ht="12.75">
       <c r="B964" s="2"/>
       <c r="C964" s="2"/>
     </row>
-    <row r="965" spans="2:3" ht="13.2">
+    <row r="965" spans="2:3" ht="12.75">
       <c r="B965" s="2"/>
       <c r="C965" s="2"/>
     </row>
-    <row r="966" spans="2:3" ht="13.2">
+    <row r="966" spans="2:3" ht="12.75">
       <c r="B966" s="2"/>
       <c r="C966" s="2"/>
     </row>
-    <row r="967" spans="2:3" ht="13.2">
+    <row r="967" spans="2:3" ht="12.75">
       <c r="B967" s="2"/>
       <c r="C967" s="2"/>
     </row>
-    <row r="968" spans="2:3" ht="13.2">
+    <row r="968" spans="2:3" ht="12.75">
       <c r="B968" s="2"/>
       <c r="C968" s="2"/>
     </row>
-    <row r="969" spans="2:3" ht="13.2">
+    <row r="969" spans="2:3" ht="12.75">
       <c r="B969" s="2"/>
       <c r="C969" s="2"/>
     </row>
-    <row r="970" spans="2:3" ht="13.2">
+    <row r="970" spans="2:3" ht="12.75">
       <c r="B970" s="2"/>
       <c r="C970" s="2"/>
     </row>
-    <row r="971" spans="2:3" ht="13.2">
+    <row r="971" spans="2:3" ht="12.75">
       <c r="B971" s="2"/>
       <c r="C971" s="2"/>
     </row>
-    <row r="972" spans="2:3" ht="13.2">
+    <row r="972" spans="2:3" ht="12.75">
       <c r="B972" s="2"/>
       <c r="C972" s="2"/>
     </row>
-    <row r="973" spans="2:3" ht="13.2">
+    <row r="973" spans="2:3" ht="12.75">
       <c r="B973" s="2"/>
       <c r="C973" s="2"/>
     </row>
-    <row r="974" spans="2:3" ht="13.2">
+    <row r="974" spans="2:3" ht="12.75">
       <c r="B974" s="2"/>
       <c r="C974" s="2"/>
     </row>
-    <row r="975" spans="2:3" ht="13.2">
+    <row r="975" spans="2:3" ht="12.75">
       <c r="B975" s="2"/>
       <c r="C975" s="2"/>
     </row>
-    <row r="976" spans="2:3" ht="13.2">
+    <row r="976" spans="2:3" ht="12.75">
       <c r="B976" s="2"/>
       <c r="C976" s="2"/>
     </row>
-    <row r="977" spans="2:3" ht="13.2">
+    <row r="977" spans="2:3" ht="12.75">
       <c r="B977" s="2"/>
       <c r="C977" s="2"/>
     </row>
-    <row r="978" spans="2:3" ht="13.2">
+    <row r="978" spans="2:3" ht="12.75">
       <c r="B978" s="2"/>
       <c r="C978" s="2"/>
     </row>
-    <row r="979" spans="2:3" ht="13.2">
+    <row r="979" spans="2:3" ht="12.75">
       <c r="B979" s="2"/>
       <c r="C979" s="2"/>
     </row>
-    <row r="980" spans="2:3" ht="13.2">
+    <row r="980" spans="2:3" ht="12.75">
       <c r="B980" s="2"/>
       <c r="C980" s="2"/>
     </row>
-    <row r="981" spans="2:3" ht="13.2">
+    <row r="981" spans="2:3" ht="12.75">
       <c r="B981" s="2"/>
       <c r="C981" s="2"/>
     </row>
-    <row r="982" spans="2:3" ht="13.2">
+    <row r="982" spans="2:3" ht="12.75">
       <c r="B982" s="2"/>
       <c r="C982" s="2"/>
     </row>
-    <row r="983" spans="2:3" ht="13.2">
+    <row r="983" spans="2:3" ht="12.75">
       <c r="B983" s="2"/>
       <c r="C983" s="2"/>
     </row>
-    <row r="984" spans="2:3" ht="13.2">
+    <row r="984" spans="2:3" ht="12.75">
       <c r="B984" s="2"/>
       <c r="C984" s="2"/>
     </row>
-    <row r="985" spans="2:3" ht="13.2">
+    <row r="985" spans="2:3" ht="12.75">
       <c r="B985" s="2"/>
       <c r="C985" s="2"/>
     </row>
-    <row r="986" spans="2:3" ht="13.2">
+    <row r="986" spans="2:3" ht="12.75">
       <c r="B986" s="2"/>
       <c r="C986" s="2"/>
     </row>
-    <row r="987" spans="2:3" ht="13.2">
+    <row r="987" spans="2:3" ht="12.75">
       <c r="B987" s="2"/>
       <c r="C987" s="2"/>
     </row>
-    <row r="988" spans="2:3" ht="13.2">
+    <row r="988" spans="2:3" ht="12.75">
       <c r="B988" s="2"/>
       <c r="C988" s="2"/>
     </row>
-    <row r="989" spans="2:3" ht="13.2">
+    <row r="989" spans="2:3" ht="12.75">
       <c r="B989" s="2"/>
       <c r="C989" s="2"/>
     </row>
-    <row r="990" spans="2:3" ht="13.2">
+    <row r="990" spans="2:3" ht="12.75">
       <c r="B990" s="2"/>
       <c r="C990" s="2"/>
     </row>
-    <row r="991" spans="2:3" ht="13.2">
+    <row r="991" spans="2:3" ht="12.75">
       <c r="B991" s="2"/>
       <c r="C991" s="2"/>
     </row>
-    <row r="992" spans="2:3" ht="13.2">
+    <row r="992" spans="2:3" ht="12.75">
       <c r="B992" s="2"/>
       <c r="C992" s="2"/>
     </row>
-    <row r="993" spans="2:3" ht="13.2">
+    <row r="993" spans="2:3" ht="12.75">
       <c r="B993" s="2"/>
       <c r="C993" s="2"/>
     </row>
-    <row r="994" spans="2:3" ht="13.2">
+    <row r="994" spans="2:3" ht="12.75">
       <c r="B994" s="2"/>
       <c r="C994" s="2"/>
     </row>
-    <row r="995" spans="2:3" ht="13.2">
+    <row r="995" spans="2:3" ht="12.75">
       <c r="B995" s="2"/>
       <c r="C995" s="2"/>
     </row>
-    <row r="996" spans="2:3" ht="13.2">
+    <row r="996" spans="2:3" ht="12.75">
       <c r="B996" s="2"/>
       <c r="C996" s="2"/>
     </row>
-    <row r="997" spans="2:3" ht="13.2">
+    <row r="997" spans="2:3" ht="12.75">
       <c r="B997" s="2"/>
       <c r="C997" s="2"/>
     </row>
-    <row r="998" spans="2:3" ht="13.2">
+    <row r="998" spans="2:3" ht="12.75">
       <c r="B998" s="2"/>
       <c r="C998" s="2"/>
     </row>
-    <row r="999" spans="2:3" ht="13.2">
+    <row r="999" spans="2:3" ht="12.75">
       <c r="B999" s="2"/>
       <c r="C999" s="2"/>
     </row>
-    <row r="1000" spans="2:3" ht="13.2">
+    <row r="1000" spans="2:3" ht="12.75">
       <c r="B1000" s="2"/>
       <c r="C1000" s="2"/>
     </row>
-    <row r="1001" spans="2:3" ht="13.2">
+    <row r="1001" spans="2:3" ht="12.75">
       <c r="B1001" s="2"/>
       <c r="C1001" s="2"/>
     </row>
-    <row r="1002" spans="2:3" ht="13.2">
+    <row r="1002" spans="2:3" ht="12.75">
       <c r="B1002" s="2"/>
       <c r="C1002" s="2"/>
     </row>
-    <row r="1003" spans="2:3" ht="13.2">
+    <row r="1003" spans="2:3" ht="12.75">
       <c r="B1003" s="2"/>
       <c r="C1003" s="2"/>
     </row>
-    <row r="1004" spans="2:3" ht="13.2">
+    <row r="1004" spans="2:3" ht="12.75">
       <c r="B1004" s="2"/>
       <c r="C1004" s="2"/>
     </row>
-    <row r="1005" spans="2:3" ht="13.2">
+    <row r="1005" spans="2:3" ht="12.75">
       <c r="B1005" s="2"/>
       <c r="C1005" s="2"/>
     </row>
-    <row r="1006" spans="2:3" ht="13.2">
+    <row r="1006" spans="2:3" ht="12.75">
       <c r="B1006" s="2"/>
       <c r="C1006" s="2"/>
     </row>
-    <row r="1007" spans="2:3" ht="13.2">
+    <row r="1007" spans="2:3" ht="12.75">
       <c r="B1007" s="2"/>
       <c r="C1007" s="2"/>
     </row>
-    <row r="1008" spans="2:3" ht="13.2">
+    <row r="1008" spans="2:3" ht="12.75">
       <c r="B1008" s="2"/>
       <c r="C1008" s="2"/>
     </row>
-    <row r="1009" spans="2:3" ht="13.2">
+    <row r="1009" spans="2:3" ht="12.75">
       <c r="B1009" s="2"/>
       <c r="C1009" s="2"/>
     </row>
-    <row r="1010" spans="2:3" ht="13.2">
+    <row r="1010" spans="2:3" ht="12.75">
       <c r="B1010" s="2"/>
       <c r="C1010" s="2"/>
     </row>
-    <row r="1011" spans="2:3" ht="13.2">
+    <row r="1011" spans="2:3" ht="12.75">
       <c r="B1011" s="2"/>
       <c r="C1011" s="2"/>
     </row>
-    <row r="1012" spans="2:3" ht="13.2">
+    <row r="1012" spans="2:3" ht="12.75">
       <c r="B1012" s="2"/>
       <c r="C1012" s="2"/>
     </row>
-    <row r="1013" spans="2:3" ht="13.2">
+    <row r="1013" spans="2:3" ht="12.75">
       <c r="B1013" s="2"/>
       <c r="C1013" s="2"/>
     </row>
-    <row r="1014" spans="2:3" ht="13.2">
+    <row r="1014" spans="2:3" ht="12.75">
       <c r="B1014" s="2"/>
       <c r="C1014" s="2"/>
     </row>
-    <row r="1015" spans="2:3" ht="13.2">
+    <row r="1015" spans="2:3" ht="12.75">
       <c r="B1015" s="2"/>
       <c r="C1015" s="2"/>
     </row>
-    <row r="1016" spans="2:3" ht="13.2">
+    <row r="1016" spans="2:3" ht="12.75">
       <c r="B1016" s="2"/>
       <c r="C1016" s="2"/>
     </row>
-    <row r="1017" spans="2:3" ht="13.2">
+    <row r="1017" spans="2:3" ht="12.75">
       <c r="B1017" s="2"/>
       <c r="C1017" s="2"/>
     </row>
-    <row r="1018" spans="2:3" ht="13.2">
+    <row r="1018" spans="2:3" ht="12.75">
       <c r="B1018" s="2"/>
       <c r="C1018" s="2"/>
     </row>
-    <row r="1019" spans="2:3" ht="13.2">
+    <row r="1019" spans="2:3" ht="12.75">
       <c r="B1019" s="2"/>
       <c r="C1019" s="2"/>
     </row>
-    <row r="1020" spans="2:3" ht="13.2">
+    <row r="1020" spans="2:3" ht="12.75">
       <c r="B1020" s="2"/>
       <c r="C1020" s="2"/>
     </row>
-    <row r="1021" spans="2:3" ht="13.2">
+    <row r="1021" spans="2:3" ht="12.75">
       <c r="B1021" s="2"/>
       <c r="C1021" s="2"/>
     </row>
-    <row r="1022" spans="2:3" ht="13.2">
+    <row r="1022" spans="2:3" ht="12.75">
       <c r="B1022" s="2"/>
       <c r="C1022" s="2"/>
     </row>
-    <row r="1023" spans="2:3" ht="13.2">
+    <row r="1023" spans="2:3" ht="12.75">
       <c r="B1023" s="2"/>
       <c r="C1023" s="2"/>
     </row>
-    <row r="1024" spans="2:3" ht="13.2">
+    <row r="1024" spans="2:3" ht="12.75">
       <c r="B1024" s="2"/>
       <c r="C1024" s="2"/>
     </row>
-    <row r="1025" spans="2:3" ht="13.2">
+    <row r="1025" spans="2:3" ht="12.75">
       <c r="B1025" s="2"/>
       <c r="C1025" s="2"/>
     </row>
-    <row r="1026" spans="2:3" ht="13.2">
+    <row r="1026" spans="2:3" ht="12.75">
       <c r="B1026" s="2"/>
       <c r="C1026" s="2"/>
     </row>
-    <row r="1027" spans="2:3" ht="13.2">
+    <row r="1027" spans="2:3" ht="12.75">
       <c r="B1027" s="2"/>
       <c r="C1027" s="2"/>
     </row>
-    <row r="1028" spans="2:3" ht="13.2">
+    <row r="1028" spans="2:3" ht="12.75">
       <c r="B1028" s="2"/>
       <c r="C1028" s="2"/>
     </row>
-    <row r="1029" spans="2:3" ht="13.2">
+    <row r="1029" spans="2:3" ht="12.75">
       <c r="B1029" s="2"/>
       <c r="C1029" s="2"/>
     </row>
-    <row r="1030" spans="2:3" ht="13.2">
+    <row r="1030" spans="2:3" ht="12.75">
       <c r="B1030" s="2"/>
       <c r="C1030" s="2"/>
     </row>
-    <row r="1031" spans="2:3" ht="13.2">
+    <row r="1031" spans="2:3" ht="12.75">
       <c r="B1031" s="2"/>
       <c r="C1031" s="2"/>
     </row>
-    <row r="1032" spans="2:3" ht="13.2">
+    <row r="1032" spans="2:3" ht="12.75">
       <c r="B1032" s="2"/>
       <c r="C1032" s="2"/>
     </row>
-    <row r="1033" spans="2:3" ht="13.2">
+    <row r="1033" spans="2:3" ht="12.75">
       <c r="B1033" s="2"/>
       <c r="C1033" s="2"/>
     </row>
-    <row r="1034" spans="2:3" ht="13.2">
+    <row r="1034" spans="2:3" ht="12.75">
       <c r="B1034" s="2"/>
       <c r="C1034" s="2"/>
     </row>
-    <row r="1035" spans="2:3" ht="13.2">
+    <row r="1035" spans="2:3" ht="12.75">
       <c r="B1035" s="2"/>
       <c r="C1035" s="2"/>
     </row>
-    <row r="1036" spans="2:3" ht="13.2">
+    <row r="1036" spans="2:3" ht="12.75">
       <c r="B1036" s="2"/>
       <c r="C1036" s="2"/>
     </row>
-    <row r="1037" spans="2:3" ht="13.2">
+    <row r="1037" spans="2:3" ht="12.75">
       <c r="B1037" s="2"/>
       <c r="C1037" s="2"/>
     </row>
-    <row r="1038" spans="2:3" ht="13.2">
+    <row r="1038" spans="2:3" ht="12.75">
       <c r="B1038" s="2"/>
       <c r="C1038" s="2"/>
     </row>
-    <row r="1039" spans="2:3" ht="13.2">
+    <row r="1039" spans="2:3" ht="12.75">
       <c r="B1039" s="2"/>
       <c r="C1039" s="2"/>
     </row>
-    <row r="1040" spans="2:3" ht="13.2">
+    <row r="1040" spans="2:3" ht="12.75">
       <c r="B1040" s="2"/>
       <c r="C1040" s="2"/>
     </row>
-    <row r="1041" spans="2:3" ht="13.2">
+    <row r="1041" spans="2:3" ht="12.75">
       <c r="B1041" s="2"/>
       <c r="C1041" s="2"/>
     </row>
-    <row r="1042" spans="2:3" ht="13.2">
+    <row r="1042" spans="2:3" ht="12.75">
       <c r="B1042" s="2"/>
       <c r="C1042" s="2"/>
     </row>
-    <row r="1043" spans="2:3" ht="13.2">
+    <row r="1043" spans="2:3" ht="12.75">
       <c r="B1043" s="2"/>
       <c r="C1043" s="2"/>
     </row>
-    <row r="1044" spans="2:3" ht="13.2">
+    <row r="1044" spans="2:3" ht="12.75">
       <c r="B1044" s="2"/>
       <c r="C1044" s="2"/>
     </row>
-    <row r="1045" spans="2:3" ht="13.2">
+    <row r="1045" spans="2:3" ht="12.75">
       <c r="B1045" s="2"/>
       <c r="C1045" s="2"/>
     </row>
-    <row r="1046" spans="2:3" ht="13.2">
+    <row r="1046" spans="2:3" ht="12.75">
       <c r="B1046" s="2"/>
       <c r="C1046" s="2"/>
     </row>
-    <row r="1047" spans="2:3" ht="13.2">
+    <row r="1047" spans="2:3" ht="12.75">
       <c r="B1047" s="2"/>
       <c r="C1047" s="2"/>
     </row>
-    <row r="1048" spans="2:3" ht="13.2">
+    <row r="1048" spans="2:3" ht="12.75">
       <c r="B1048" s="2"/>
       <c r="C1048" s="2"/>
     </row>
-    <row r="1049" spans="2:3" ht="13.2">
+    <row r="1049" spans="2:3" ht="12.75">
       <c r="B1049" s="2"/>
       <c r="C1049" s="2"/>
     </row>
-    <row r="1050" spans="2:3" ht="13.2">
+    <row r="1050" spans="2:3" ht="12.75">
       <c r="B1050" s="2"/>
       <c r="C1050" s="2"/>
     </row>
-    <row r="1051" spans="2:3" ht="13.2">
+    <row r="1051" spans="2:3" ht="12.75">
       <c r="B1051" s="2"/>
       <c r="C1051" s="2"/>
     </row>
-    <row r="1052" spans="2:3" ht="13.2">
+    <row r="1052" spans="2:3" ht="12.75">
       <c r="B1052" s="2"/>
       <c r="C1052" s="2"/>
     </row>
-    <row r="1053" spans="2:3" ht="13.2">
+    <row r="1053" spans="2:3" ht="12.75">
       <c r="B1053" s="2"/>
       <c r="C1053" s="2"/>
     </row>
-    <row r="1054" spans="2:3" ht="13.2">
+    <row r="1054" spans="2:3" ht="12.75">
       <c r="B1054" s="2"/>
       <c r="C1054" s="2"/>
     </row>
-    <row r="1055" spans="2:3" ht="13.2">
+    <row r="1055" spans="2:3" ht="12.75">
       <c r="B1055" s="2"/>
       <c r="C1055" s="2"/>
     </row>
-    <row r="1056" spans="2:3" ht="13.2">
+    <row r="1056" spans="2:3" ht="12.75">
       <c r="B1056" s="2"/>
       <c r="C1056" s="2"/>
     </row>
-    <row r="1057" spans="2:3" ht="13.2">
+    <row r="1057" spans="2:3" ht="12.75">
       <c r="B1057" s="2"/>
       <c r="C1057" s="2"/>
     </row>
-    <row r="1058" spans="2:3" ht="13.2">
+    <row r="1058" spans="2:3" ht="12.75">
       <c r="B1058" s="2"/>
       <c r="C1058" s="2"/>
     </row>
-    <row r="1059" spans="2:3" ht="13.2">
+    <row r="1059" spans="2:3" ht="12.75">
       <c r="B1059" s="2"/>
       <c r="C1059" s="2"/>
     </row>
-    <row r="1060" spans="2:3" ht="13.2">
+    <row r="1060" spans="2:3" ht="12.75">
       <c r="B1060" s="2"/>
       <c r="C1060" s="2"/>
     </row>
-    <row r="1061" spans="2:3" ht="13.2">
+    <row r="1061" spans="2:3" ht="12.75">
       <c r="B1061" s="2"/>
       <c r="C1061" s="2"/>
     </row>
-    <row r="1062" spans="2:3" ht="13.2">
+    <row r="1062" spans="2:3" ht="12.75">
       <c r="B1062" s="2"/>
       <c r="C1062" s="2"/>
     </row>
-    <row r="1063" spans="2:3" ht="13.2">
+    <row r="1063" spans="2:3" ht="12.75">
       <c r="B1063" s="2"/>
       <c r="C1063" s="2"/>
     </row>
-    <row r="1064" spans="2:3" ht="13.2">
+    <row r="1064" spans="2:3" ht="12.75">
       <c r="B1064" s="2"/>
       <c r="C1064" s="2"/>
     </row>
-    <row r="1065" spans="2:3" ht="13.2">
+    <row r="1065" spans="2:3" ht="12.75">
       <c r="B1065" s="2"/>
       <c r="C1065" s="2"/>
     </row>
-    <row r="1066" spans="2:3" ht="13.2">
+    <row r="1066" spans="2:3" ht="12.75">
       <c r="B1066" s="2"/>
       <c r="C1066" s="2"/>
     </row>
-    <row r="1067" spans="2:3" ht="13.2">
+    <row r="1067" spans="2:3" ht="12.75">
       <c r="B1067" s="2"/>
       <c r="C1067" s="2"/>
     </row>
-    <row r="1068" spans="2:3" ht="13.2">
+    <row r="1068" spans="2:3" ht="12.75">
       <c r="B1068" s="2"/>
       <c r="C1068" s="2"/>
     </row>
-    <row r="1069" spans="2:3" ht="13.2">
+    <row r="1069" spans="2:3" ht="12.75">
       <c r="B1069" s="2"/>
       <c r="C1069" s="2"/>
     </row>
-    <row r="1070" spans="2:3" ht="13.2">
+    <row r="1070" spans="2:3" ht="12.75">
       <c r="B1070" s="2"/>
       <c r="C1070" s="2"/>
     </row>
-    <row r="1071" spans="2:3" ht="13.2">
+    <row r="1071" spans="2:3" ht="12.75">
       <c r="B1071" s="2"/>
       <c r="C1071" s="2"/>
     </row>
-    <row r="1072" spans="2:3" ht="13.2">
+    <row r="1072" spans="2:3" ht="12.75">
       <c r="B1072" s="2"/>
       <c r="C1072" s="2"/>
     </row>
-    <row r="1073" spans="2:3" ht="13.2">
+    <row r="1073" spans="2:3" ht="12.75">
       <c r="B1073" s="2"/>
       <c r="C1073" s="2"/>
     </row>
-    <row r="1074" spans="2:3" ht="13.2">
+    <row r="1074" spans="2:3" ht="12.75">
       <c r="B1074" s="2"/>
       <c r="C1074" s="2"/>
     </row>
-    <row r="1075" spans="2:3" ht="13.2">
+    <row r="1075" spans="2:3" ht="12.75">
       <c r="B1075" s="2"/>
       <c r="C1075" s="2"/>
     </row>
-    <row r="1076" spans="2:3" ht="13.2">
+    <row r="1076" spans="2:3" ht="12.75">
       <c r="B1076" s="2"/>
       <c r="C1076" s="2"/>
     </row>
-    <row r="1077" spans="2:3" ht="13.2">
+    <row r="1077" spans="2:3" ht="12.75">
       <c r="B1077" s="2"/>
       <c r="C1077" s="2"/>
     </row>
-    <row r="1078" spans="2:3" ht="13.2">
+    <row r="1078" spans="2:3" ht="12.75">
       <c r="B1078" s="2"/>
       <c r="C1078" s="2"/>
     </row>
-    <row r="1079" spans="2:3" ht="13.2">
+    <row r="1079" spans="2:3" ht="12.75">
       <c r="B1079" s="2"/>
       <c r="C1079" s="2"/>
     </row>
@@ -7470,15 +7470,15 @@
   <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="98.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="98.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="10" customFormat="1" ht="22.8">
+    <row r="1" spans="1:3" s="10" customFormat="1" ht="23.25">
       <c r="A1" s="9"/>
       <c r="B1" s="32" t="s">
         <v>168</v>
@@ -8196,15 +8196,15 @@
   <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="98.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="98.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="10" customFormat="1" ht="22.8">
+    <row r="1" spans="1:3" s="10" customFormat="1" ht="23.25">
       <c r="A1" s="9"/>
       <c r="B1" s="32" t="s">
         <v>170</v>
@@ -8921,17 +8921,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB6F2D63-407C-46B8-96A9-95E2ACD73A23}">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="103.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="103.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="10" customFormat="1" ht="22.8">
+    <row r="1" spans="1:3" s="10" customFormat="1" ht="23.25">
       <c r="A1" s="9"/>
       <c r="B1" s="32" t="s">
         <v>172</v>
@@ -9382,13 +9382,13 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="103.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="103.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="10" customFormat="1" ht="22.8">
+    <row r="1" spans="1:3" s="10" customFormat="1" ht="23.25">
       <c r="A1" s="9"/>
       <c r="B1" s="32" t="s">
         <v>178</v>
@@ -10352,13 +10352,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="103.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="103.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="10" customFormat="1" ht="22.8">
+    <row r="1" spans="1:3" s="10" customFormat="1" ht="23.25">
       <c r="A1" s="9"/>
       <c r="B1" s="32" t="s">
         <v>179</v>
@@ -10585,13 +10585,13 @@
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="103.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="103.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="10" customFormat="1" ht="22.8">
+    <row r="1" spans="1:3" s="10" customFormat="1" ht="23.25">
       <c r="A1" s="9"/>
       <c r="B1" s="32" t="s">
         <v>180</v>
@@ -10943,13 +10943,13 @@
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="103.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="103.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="10" customFormat="1" ht="22.8">
+    <row r="1" spans="1:3" s="10" customFormat="1" ht="23.25">
       <c r="A1" s="9"/>
       <c r="B1" s="32" t="s">
         <v>182</v>
@@ -11301,13 +11301,13 @@
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="103.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="103.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="10" customFormat="1" ht="22.8">
+    <row r="1" spans="1:3" s="10" customFormat="1" ht="23.25">
       <c r="A1" s="9"/>
       <c r="B1" s="32" t="s">
         <v>184</v>
@@ -11659,13 +11659,13 @@
       <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="103.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="103.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="10" customFormat="1" ht="22.8">
+    <row r="1" spans="1:3" s="10" customFormat="1" ht="23.25">
       <c r="A1" s="9"/>
       <c r="B1" s="32" t="s">
         <v>185</v>
@@ -12017,13 +12017,13 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="103.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="103.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="10" customFormat="1" ht="22.8">
+    <row r="1" spans="1:3" s="10" customFormat="1" ht="23.25">
       <c r="A1" s="9"/>
       <c r="B1" s="32" t="s">
         <v>183</v>
@@ -13232,16 +13232,16 @@
   <dimension ref="A1:C144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="103.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="103.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="10" customFormat="1" ht="22.8">
+    <row r="1" spans="1:3" s="10" customFormat="1" ht="23.25">
       <c r="A1" s="9"/>
       <c r="B1" s="32" t="s">
         <v>153</v>
@@ -14443,13 +14443,13 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="103.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="103.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="10" customFormat="1" ht="22.8">
+    <row r="1" spans="1:3" s="10" customFormat="1" ht="23.25">
       <c r="A1" s="9"/>
       <c r="B1" s="32" t="s">
         <v>195</v>
@@ -14684,13 +14684,13 @@
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="103.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="103.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="10" customFormat="1" ht="22.8">
+    <row r="1" spans="1:3" s="10" customFormat="1" ht="23.25">
       <c r="A1" s="9"/>
       <c r="B1" s="32" t="s">
         <v>198</v>
@@ -14886,13 +14886,13 @@
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="103.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="103.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="10" customFormat="1" ht="22.8">
+    <row r="1" spans="1:3" s="10" customFormat="1" ht="23.25">
       <c r="A1" s="9"/>
       <c r="B1" s="32" t="s">
         <v>206</v>
@@ -15277,13 +15277,13 @@
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="103.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="103.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="10" customFormat="1" ht="22.8">
+    <row r="1" spans="1:3" s="10" customFormat="1" ht="23.25">
       <c r="A1" s="9"/>
       <c r="B1" s="32" t="s">
         <v>205</v>
@@ -15668,13 +15668,13 @@
       <selection activeCell="A5" sqref="A5:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="103.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="103.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="10" customFormat="1" ht="22.8">
+    <row r="1" spans="1:3" s="10" customFormat="1" ht="23.25">
       <c r="A1" s="9"/>
       <c r="B1" s="32" t="s">
         <v>207</v>
@@ -16059,13 +16059,13 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="103.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="103.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="10" customFormat="1" ht="22.8">
+    <row r="1" spans="1:3" s="10" customFormat="1" ht="23.25">
       <c r="A1" s="9"/>
       <c r="B1" s="32" t="s">
         <v>209</v>
@@ -16455,16 +16455,16 @@
   <dimension ref="A1:C112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="103.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="103.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="10" customFormat="1" ht="22.8">
+    <row r="1" spans="1:3" s="10" customFormat="1" ht="23.25">
       <c r="A1" s="9"/>
       <c r="B1" s="32" t="s">
         <v>152</v>
@@ -17394,16 +17394,16 @@
   <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="103.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="103.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="10" customFormat="1" ht="22.8">
+    <row r="1" spans="1:3" s="10" customFormat="1" ht="23.25">
       <c r="A1" s="9"/>
       <c r="B1" s="32" t="s">
         <v>154</v>
@@ -17848,16 +17848,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9318D6A-A651-4FA3-8E81-2658ABFFFFBE}">
   <dimension ref="A1:XFD84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="103.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="103.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="10" customFormat="1" ht="22.8">
+    <row r="1" spans="1:3" s="10" customFormat="1" ht="23.25">
       <c r="A1" s="9"/>
       <c r="B1" s="32" t="s">
         <v>156</v>
@@ -34944,17 +34944,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971A1DF3-7942-4BF4-B476-09370D721F50}">
   <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD8"/>
+    <sheetView topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="103.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="103.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="10" customFormat="1" ht="22.8">
+    <row r="1" spans="1:3" s="10" customFormat="1" ht="23.25">
       <c r="A1" s="9"/>
       <c r="B1" s="32" t="s">
         <v>213</v>
@@ -35892,16 +35892,16 @@
   <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="103.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="103.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="10" customFormat="1" ht="22.8">
+    <row r="1" spans="1:3" s="10" customFormat="1" ht="23.25">
       <c r="A1" s="9"/>
       <c r="B1" s="32" t="s">
         <v>158</v>
@@ -36358,16 +36358,16 @@
   <dimension ref="A1:C169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="103.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="103.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="10" customFormat="1" ht="22.8">
+    <row r="1" spans="1:3" s="10" customFormat="1" ht="23.25">
       <c r="A1" s="9"/>
       <c r="B1" s="32" t="s">
         <v>162</v>
@@ -37767,15 +37767,15 @@
   <dimension ref="A1:C85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="98.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="98.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="10" customFormat="1" ht="22.8">
+    <row r="1" spans="1:3" s="10" customFormat="1" ht="23.25">
       <c r="A1" s="9"/>
       <c r="B1" s="32" t="s">
         <v>171</v>
@@ -38716,15 +38716,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="2931579a-dc66-44b3-b451-e3a01df5838f">
@@ -38733,6 +38724,15 @@
     <TaxCatchAll xmlns="bf7a2488-cba9-450c-9cdc-b302e91c7522" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -38755,14 +38755,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0ED345EC-6C9D-4890-A218-70EBF9BC5133}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B89B96E-FEEF-421B-AB2A-F371801F53A3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -38771,4 +38763,12 @@
     <ds:schemaRef ds:uri="bf7a2488-cba9-450c-9cdc-b302e91c7522"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0ED345EC-6C9D-4890-A218-70EBF9BC5133}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>